--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1046">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4398,6 +4398,22 @@
   </si>
   <si>
     <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_JBZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5042,13 +5058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C328" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B349" sqref="B349"/>
+      <selection pane="bottomRight" activeCell="E345" sqref="E345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13753,6 +13769,32 @@
       </c>
       <c r="I343" s="48" t="s">
         <v>1041</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="15">
+        <v>343</v>
+      </c>
+      <c r="B344" s="41" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C344" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>1</v>
+      </c>
+      <c r="G344" s="16">
+        <v>1</v>
+      </c>
+      <c r="I344" s="14" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1050">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4410,6 +4410,22 @@
   </si>
   <si>
     <t>Sys_Act_JBZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrxsfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_XRXSFLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5058,13 +5074,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E345" sqref="E345"/>
+      <selection pane="bottomRight" activeCell="E346" sqref="E346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13795,6 +13811,32 @@
       </c>
       <c r="I344" s="14" t="s">
         <v>1045</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="15">
+        <v>344</v>
+      </c>
+      <c r="B345" s="41" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>1</v>
+      </c>
+      <c r="G345" s="16">
+        <v>1</v>
+      </c>
+      <c r="I345" s="14" t="s">
+        <v>1049</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1049">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3382,10 +3382,6 @@
   </si>
   <si>
     <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4640,7 +4636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4789,9 +4785,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -5077,10 +5070,10 @@
   <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E346" sqref="E346"/>
+      <selection pane="bottomRight" activeCell="H280" sqref="H280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5101,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6352,7 +6345,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6506,7 +6499,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6610,7 +6603,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6639,7 +6632,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6654,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7070,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -9020,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -11061,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11485,13 +11478,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="42" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>732</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11563,11 +11556,11 @@
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="51" t="s">
+      <c r="B256" s="50" t="s">
         <v>743</v>
       </c>
       <c r="C256" s="48" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D256" s="48" t="s">
         <v>744</v>
@@ -11583,7 +11576,7 @@
       </c>
       <c r="H256" s="49"/>
       <c r="I256" s="48" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -12030,7 +12023,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12038,7 +12031,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C274" s="14" t="s">
         <v>806</v>
@@ -12084,14 +12077,14 @@
       </c>
       <c r="H275" s="16"/>
       <c r="I275" s="23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="49" customFormat="1">
       <c r="A276" s="46">
         <v>275</v>
       </c>
-      <c r="B276" s="51" t="s">
+      <c r="B276" s="50" t="s">
         <v>812</v>
       </c>
       <c r="C276" s="48" t="s">
@@ -12106,8 +12099,8 @@
       <c r="G276" s="49">
         <v>1</v>
       </c>
-      <c r="I276" s="50" t="s">
-        <v>814</v>
+      <c r="I276" s="48" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12115,13 +12108,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="D277" s="26" t="s">
         <v>815</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>920</v>
-      </c>
-      <c r="D277" s="26" t="s">
-        <v>816</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12134,7 +12127,7 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12142,25 +12135,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D278" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="18" t="s">
         <v>817</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="18" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12168,22 +12161,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="C279" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>820</v>
-      </c>
-      <c r="C279" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12191,13 +12184,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12209,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12217,13 +12210,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12235,7 +12228,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12243,25 +12236,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D282" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="18" t="s">
         <v>830</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="18" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="29" customFormat="1" ht="17.25" customHeight="1">
@@ -12269,25 +12262,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="C283" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="C283" s="27" t="s">
+      <c r="D283" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="D283" s="28" t="s">
+      <c r="E283" s="29">
+        <v>1</v>
+      </c>
+      <c r="F283" s="29">
+        <v>1</v>
+      </c>
+      <c r="G283" s="29">
+        <v>1</v>
+      </c>
+      <c r="I283" s="30" t="s">
         <v>834</v>
-      </c>
-      <c r="E283" s="29">
-        <v>1</v>
-      </c>
-      <c r="F283" s="29">
-        <v>1</v>
-      </c>
-      <c r="G283" s="29">
-        <v>1</v>
-      </c>
-      <c r="I283" s="30" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1">
@@ -12295,13 +12288,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="C284" s="27" t="s">
         <v>840</v>
       </c>
-      <c r="C284" s="27" t="s">
-        <v>841</v>
-      </c>
       <c r="D284" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12321,25 +12314,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="C285" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="D285" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="D285" s="17" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>845</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1">
@@ -12347,13 +12340,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="C286" s="27" t="s">
         <v>848</v>
       </c>
-      <c r="C286" s="27" t="s">
-        <v>849</v>
-      </c>
       <c r="D286" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12373,25 +12366,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="C287" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="C287" s="27" t="s">
+      <c r="D287" s="28" t="s">
         <v>851</v>
       </c>
-      <c r="D287" s="28" t="s">
+      <c r="E287" s="29">
+        <v>1</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1</v>
+      </c>
+      <c r="G287" s="29">
+        <v>1</v>
+      </c>
+      <c r="I287" s="30" t="s">
         <v>852</v>
-      </c>
-      <c r="E287" s="29">
-        <v>1</v>
-      </c>
-      <c r="F287" s="29">
-        <v>1</v>
-      </c>
-      <c r="G287" s="29">
-        <v>1</v>
-      </c>
-      <c r="I287" s="30" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="16" customFormat="1">
@@ -12399,14 +12392,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C288" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="D288" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="D288" s="14" t="s">
-        <v>856</v>
-      </c>
       <c r="E288" s="16">
         <v>0</v>
       </c>
@@ -12417,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I288" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="29" customFormat="1">
@@ -12425,25 +12418,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="C289" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="C289" s="27" t="s">
+      <c r="D289" s="28" t="s">
         <v>858</v>
       </c>
-      <c r="D289" s="28" t="s">
+      <c r="E289" s="29">
+        <v>1</v>
+      </c>
+      <c r="F289" s="29">
+        <v>1</v>
+      </c>
+      <c r="G289" s="29">
+        <v>1</v>
+      </c>
+      <c r="I289" s="30" t="s">
         <v>859</v>
-      </c>
-      <c r="E289" s="29">
-        <v>1</v>
-      </c>
-      <c r="F289" s="29">
-        <v>1</v>
-      </c>
-      <c r="G289" s="29">
-        <v>1</v>
-      </c>
-      <c r="I289" s="30" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="29" customFormat="1">
@@ -12451,25 +12444,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="C290" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="C290" s="27" t="s">
+      <c r="D290" s="28" t="s">
         <v>862</v>
       </c>
-      <c r="D290" s="28" t="s">
+      <c r="E290" s="29">
+        <v>1</v>
+      </c>
+      <c r="F290" s="29">
+        <v>1</v>
+      </c>
+      <c r="G290" s="29">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>863</v>
-      </c>
-      <c r="E290" s="29">
-        <v>1</v>
-      </c>
-      <c r="F290" s="29">
-        <v>1</v>
-      </c>
-      <c r="G290" s="29">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="29" customFormat="1">
@@ -12477,13 +12470,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="28" t="s">
+        <v>864</v>
+      </c>
+      <c r="C291" s="27" t="s">
         <v>865</v>
       </c>
-      <c r="C291" s="27" t="s">
+      <c r="D291" s="28" t="s">
         <v>866</v>
-      </c>
-      <c r="D291" s="28" t="s">
-        <v>867</v>
       </c>
       <c r="E291" s="29">
         <v>1</v>
@@ -12503,13 +12496,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C292" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D292" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E292" s="29">
         <v>1</v>
@@ -12529,25 +12522,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C293" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D293" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="E293" s="29">
+        <v>1</v>
+      </c>
+      <c r="F293" s="29">
+        <v>1</v>
+      </c>
+      <c r="G293" s="29">
+        <v>1</v>
+      </c>
+      <c r="I293" s="30" t="s">
         <v>871</v>
-      </c>
-      <c r="E293" s="29">
-        <v>1</v>
-      </c>
-      <c r="F293" s="29">
-        <v>1</v>
-      </c>
-      <c r="G293" s="29">
-        <v>1</v>
-      </c>
-      <c r="I293" s="30" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="29" customFormat="1">
@@ -12555,13 +12548,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="C294" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="C294" s="27" t="s">
+      <c r="D294" s="28" t="s">
         <v>876</v>
-      </c>
-      <c r="D294" s="28" t="s">
-        <v>877</v>
       </c>
       <c r="E294" s="29">
         <v>1</v>
@@ -12581,13 +12574,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="C295" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="C295" s="27" t="s">
+      <c r="D295" s="28" t="s">
         <v>879</v>
-      </c>
-      <c r="D295" s="28" t="s">
-        <v>880</v>
       </c>
       <c r="E295" s="29">
         <v>1</v>
@@ -12607,13 +12600,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="C296" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="C296" s="14" t="s">
-        <v>882</v>
-      </c>
       <c r="D296" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -12625,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12633,13 +12626,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D297" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12651,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12659,14 +12652,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="C298" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="D298" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="D298" s="19" t="s">
-        <v>889</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12677,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12685,25 +12678,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C299" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="D299" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="D299" s="17" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12711,25 +12704,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="C300" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="D300" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="D300" s="17" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>898</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12737,14 +12730,14 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C301" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D301" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="D301" s="17" t="s">
-        <v>901</v>
-      </c>
       <c r="E301" s="16">
         <v>0</v>
       </c>
@@ -12755,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12763,14 +12756,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="C302" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="C302" s="14" t="s">
-        <v>903</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>905</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12781,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12789,25 +12782,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="C303" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="D303" s="17" t="s">
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>907</v>
-      </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12815,13 +12808,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12833,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12841,25 +12834,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C305" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>931</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>958</v>
-      </c>
-      <c r="E305" s="16">
-        <v>1</v>
-      </c>
-      <c r="F305" s="16">
-        <v>1</v>
-      </c>
-      <c r="G305" s="16">
-        <v>1</v>
-      </c>
-      <c r="I305" s="14" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12867,13 +12860,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="D306" s="17" t="s">
         <v>954</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>955</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12893,25 +12886,25 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>913</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>912</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12919,13 +12912,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12937,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12945,25 +12938,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="C309" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="D309" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>923</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12971,14 +12964,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="D310" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>927</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>926</v>
-      </c>
       <c r="E310" s="16">
         <v>1</v>
       </c>
@@ -12989,7 +12982,7 @@
         <v>1</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="49" customFormat="1">
@@ -12997,14 +12990,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="47" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C311" s="48" t="s">
+        <v>927</v>
+      </c>
+      <c r="D311" s="47" t="s">
         <v>928</v>
       </c>
-      <c r="D311" s="47" t="s">
-        <v>929</v>
-      </c>
       <c r="E311" s="49">
         <v>1</v>
       </c>
@@ -13015,7 +13008,7 @@
         <v>1</v>
       </c>
       <c r="I311" s="48" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -13023,13 +13016,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="C312" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="D312" s="17" t="s">
         <v>935</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>936</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -13046,13 +13039,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -13064,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13072,13 +13065,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D314" s="38" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E314" s="16">
         <v>0</v>
@@ -13098,13 +13091,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13116,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13124,13 +13117,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="39" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D316" s="38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13150,22 +13143,22 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="C317" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="E317" s="16">
+        <v>0</v>
+      </c>
+      <c r="F317" s="16">
+        <v>1</v>
+      </c>
+      <c r="G317" s="16">
+        <v>1</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>992</v>
-      </c>
-      <c r="E317" s="16">
-        <v>0</v>
-      </c>
-      <c r="F317" s="16">
-        <v>1</v>
-      </c>
-      <c r="G317" s="16">
-        <v>1</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="16" customFormat="1">
@@ -13173,22 +13166,22 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C318" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="C318" s="14" t="s">
+      <c r="E318" s="16">
+        <v>0</v>
+      </c>
+      <c r="F318" s="16">
+        <v>1</v>
+      </c>
+      <c r="G318" s="16">
+        <v>1</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>995</v>
-      </c>
-      <c r="E318" s="16">
-        <v>0</v>
-      </c>
-      <c r="F318" s="16">
-        <v>1</v>
-      </c>
-      <c r="G318" s="16">
-        <v>1</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="16" customFormat="1">
@@ -13196,11 +13189,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="C319" s="16" t="s">
         <v>997</v>
       </c>
-      <c r="C319" s="16" t="s">
-        <v>998</v>
-      </c>
       <c r="E319" s="16">
         <v>0</v>
       </c>
@@ -13211,7 +13204,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="16" customFormat="1">
@@ -13219,11 +13212,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="C320" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="C320" s="14" t="s">
-        <v>1000</v>
-      </c>
       <c r="E320" s="16">
         <v>0</v>
       </c>
@@ -13234,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="16" customFormat="1">
@@ -13242,11 +13235,11 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C321" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="C321" s="14" t="s">
-        <v>1002</v>
-      </c>
       <c r="E321" s="16">
         <v>0</v>
       </c>
@@ -13257,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="16" customFormat="1">
@@ -13265,11 +13258,11 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C322" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="C322" s="14" t="s">
-        <v>1004</v>
-      </c>
       <c r="E322" s="16">
         <v>0</v>
       </c>
@@ -13280,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13288,22 +13281,22 @@
         <v>322</v>
       </c>
       <c r="B323" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C323" s="14" t="s">
+      <c r="E323" s="16">
+        <v>0</v>
+      </c>
+      <c r="F323" s="16">
+        <v>1</v>
+      </c>
+      <c r="G323" s="16">
+        <v>1</v>
+      </c>
+      <c r="I323" s="18" t="s">
         <v>1006</v>
-      </c>
-      <c r="E323" s="16">
-        <v>0</v>
-      </c>
-      <c r="F323" s="16">
-        <v>1</v>
-      </c>
-      <c r="G323" s="16">
-        <v>1</v>
-      </c>
-      <c r="I323" s="18" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13311,25 +13304,25 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="D324" s="17" t="s">
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>1</v>
+      </c>
+      <c r="G324" s="16">
+        <v>1</v>
+      </c>
+      <c r="I324" s="14" t="s">
         <v>963</v>
-      </c>
-      <c r="E324" s="16">
-        <v>0</v>
-      </c>
-      <c r="F324" s="16">
-        <v>1</v>
-      </c>
-      <c r="G324" s="16">
-        <v>1</v>
-      </c>
-      <c r="I324" s="14" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13337,14 +13330,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="D325" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>967</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13355,7 +13348,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13363,11 +13356,11 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="C326" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="C326" s="14" t="s">
-        <v>969</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13378,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13386,7 +13379,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E327" s="16">
         <v>1</v>
@@ -13406,14 +13399,14 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="C328" s="17" t="s">
-        <v>973</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>975</v>
-      </c>
       <c r="E328" s="16">
         <v>0</v>
       </c>
@@ -13424,10 +13417,10 @@
         <v>1</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13435,10 +13428,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E329" s="16">
         <v>0</v>
@@ -13450,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13458,10 +13451,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E330" s="16">
         <v>0</v>
@@ -13473,7 +13466,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="16" customFormat="1">
@@ -13481,22 +13474,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C331" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="E331" s="16">
+        <v>0</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>989</v>
-      </c>
-      <c r="E331" s="16">
-        <v>0</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="16" customFormat="1">
@@ -13504,14 +13497,14 @@
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D332" s="17" t="s">
         <v>1012</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1013</v>
-      </c>
       <c r="E332" s="16">
         <v>0</v>
       </c>
@@ -13522,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="16" customFormat="1">
@@ -13530,25 +13523,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D333" s="17" t="s">
         <v>1009</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D333" s="17" t="s">
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1010</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="16" customFormat="1">
@@ -13556,10 +13549,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -13571,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="16" customFormat="1">
@@ -13579,10 +13572,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -13594,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="16" customFormat="1">
@@ -13602,10 +13595,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13617,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="16" customFormat="1">
@@ -13625,11 +13618,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="C337" s="14" t="s">
-        <v>1018</v>
-      </c>
       <c r="E337" s="16">
         <v>0</v>
       </c>
@@ -13640,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="16" customFormat="1">
@@ -13648,25 +13641,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="26" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C338" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D338" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="D338" s="14" t="s">
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1020</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="16" customFormat="1">
@@ -13674,10 +13667,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E339" s="16">
         <v>0</v>
@@ -13689,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="I339" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="16" customFormat="1">
@@ -13697,10 +13690,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E340" s="16">
         <v>0</v>
@@ -13712,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="16" customFormat="1">
@@ -13720,22 +13713,22 @@
         <v>340</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C341" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E341" s="16">
+        <v>0</v>
+      </c>
+      <c r="F341" s="16">
+        <v>1</v>
+      </c>
+      <c r="G341" s="16">
+        <v>1</v>
+      </c>
+      <c r="I341" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="E341" s="16">
-        <v>0</v>
-      </c>
-      <c r="F341" s="16">
-        <v>1</v>
-      </c>
-      <c r="G341" s="16">
-        <v>1</v>
-      </c>
-      <c r="I341" s="14" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="16" customFormat="1">
@@ -13743,25 +13736,25 @@
         <v>341</v>
       </c>
       <c r="B342" s="26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C342" s="18" t="s">
         <v>1033</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="D342" s="16" t="s">
         <v>1034</v>
       </c>
-      <c r="D342" s="16" t="s">
+      <c r="E342" s="16">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16">
+        <v>1</v>
+      </c>
+      <c r="G342" s="16">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
         <v>1035</v>
-      </c>
-      <c r="E342" s="16">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16">
-        <v>1</v>
-      </c>
-      <c r="G342" s="16">
-        <v>1</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="343" spans="1:9" s="49" customFormat="1">
@@ -13769,22 +13762,22 @@
         <v>342</v>
       </c>
       <c r="B343" s="47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C343" s="48" t="s">
         <v>1039</v>
       </c>
-      <c r="C343" s="48" t="s">
+      <c r="E343" s="49">
+        <v>1</v>
+      </c>
+      <c r="F343" s="49">
+        <v>1</v>
+      </c>
+      <c r="G343" s="49">
+        <v>1</v>
+      </c>
+      <c r="I343" s="48" t="s">
         <v>1040</v>
-      </c>
-      <c r="E343" s="49">
-        <v>1</v>
-      </c>
-      <c r="F343" s="49">
-        <v>1</v>
-      </c>
-      <c r="G343" s="49">
-        <v>1</v>
-      </c>
-      <c r="I343" s="48" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13792,25 +13785,25 @@
         <v>343</v>
       </c>
       <c r="B344" s="41" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C344" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="D344" t="s">
         <v>1043</v>
       </c>
-      <c r="D344" t="s">
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>1</v>
+      </c>
+      <c r="G344" s="16">
+        <v>1</v>
+      </c>
+      <c r="I344" s="14" t="s">
         <v>1044</v>
-      </c>
-      <c r="E344" s="16">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16">
-        <v>1</v>
-      </c>
-      <c r="G344" s="16">
-        <v>1</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13818,25 +13811,25 @@
         <v>344</v>
       </c>
       <c r="B345" s="41" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D345" t="s">
         <v>1046</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>1</v>
+      </c>
+      <c r="G345" s="16">
+        <v>1</v>
+      </c>
+      <c r="I345" s="14" t="s">
         <v>1048</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E345" s="16">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16">
-        <v>1</v>
-      </c>
-      <c r="G345" s="16">
-        <v>1</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>1049</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1050">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4426,6 +4426,10 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_009_lihe</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4636,7 +4640,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4788,6 +4792,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5067,13 +5074,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H280" sqref="H280"/>
+      <selection pane="bottomRight" activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13830,6 +13837,29 @@
       </c>
       <c r="I345" s="14" t="s">
         <v>1048</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" s="49" customFormat="1">
+      <c r="A346" s="15">
+        <v>345</v>
+      </c>
+      <c r="B346" s="47" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C346" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E346" s="49">
+        <v>0</v>
+      </c>
+      <c r="F346" s="49">
+        <v>1</v>
+      </c>
+      <c r="G346" s="49">
+        <v>1</v>
+      </c>
+      <c r="I346" s="48" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1049">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3767,9 +3767,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>12月28日23:59:59</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4437,7 +4434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4514,13 +4511,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -4553,7 +4543,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4570,12 +4560,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4640,7 +4624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4701,11 +4685,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4716,37 +4703,28 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4755,22 +4733,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4779,22 +4757,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5077,16 +5055,16 @@
   <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I348" sqref="I348"/>
+      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -5097,11 +5075,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>980</v>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>979</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5571,7 +5549,7 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -6352,7 +6330,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6505,8 +6483,8 @@
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>979</v>
+      <c r="B55" s="39" t="s">
+        <v>978</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6531,7 +6509,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="39" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6610,7 +6588,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6638,8 +6616,8 @@
       <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>977</v>
+      <c r="C60" s="35" t="s">
+        <v>976</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6653,8 +6631,8 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="36" t="s">
-        <v>978</v>
+      <c r="I60" s="34" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6995,29 +6973,29 @@
         <v>639</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="32" customFormat="1">
+    <row r="74" spans="1:9" s="30" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="31">
-        <v>0</v>
-      </c>
-      <c r="F74" s="32">
-        <v>0</v>
-      </c>
-      <c r="G74" s="32">
-        <v>0</v>
-      </c>
-      <c r="I74" s="33" t="s">
+      <c r="E74" s="29">
+        <v>0</v>
+      </c>
+      <c r="F74" s="30">
+        <v>0</v>
+      </c>
+      <c r="G74" s="30">
+        <v>0</v>
+      </c>
+      <c r="I74" s="31" t="s">
         <v>641</v>
       </c>
     </row>
@@ -7047,30 +7025,30 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="25" customFormat="1">
+    <row r="76" spans="1:9" s="23" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="34">
-        <v>0</v>
-      </c>
-      <c r="F76" s="25">
-        <v>1</v>
-      </c>
-      <c r="G76" s="25">
-        <v>1</v>
-      </c>
-      <c r="I76" s="35" t="s">
-        <v>959</v>
+      <c r="E76" s="32">
+        <v>0</v>
+      </c>
+      <c r="F76" s="23">
+        <v>1</v>
+      </c>
+      <c r="G76" s="23">
+        <v>1</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8187,7 +8165,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="44" t="s">
+      <c r="I119" s="42" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9811,7 +9789,7 @@
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="41" t="s">
+      <c r="B183" s="39" t="s">
         <v>520</v>
       </c>
       <c r="C183" t="s">
@@ -9834,7 +9812,7 @@
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="41" t="s">
+      <c r="B184" s="39" t="s">
         <v>522</v>
       </c>
       <c r="C184" t="s">
@@ -9857,7 +9835,7 @@
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="39" t="s">
         <v>524</v>
       </c>
       <c r="C185" t="s">
@@ -9880,7 +9858,7 @@
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="41" t="s">
+      <c r="B186" s="39" t="s">
         <v>526</v>
       </c>
       <c r="C186" t="s">
@@ -9903,7 +9881,7 @@
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="41" t="s">
+      <c r="B187" s="39" t="s">
         <v>528</v>
       </c>
       <c r="C187" t="s">
@@ -9926,7 +9904,7 @@
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="41" t="s">
+      <c r="B188" s="39" t="s">
         <v>530</v>
       </c>
       <c r="C188" t="s">
@@ -9949,7 +9927,7 @@
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="41" t="s">
+      <c r="B189" s="39" t="s">
         <v>532</v>
       </c>
       <c r="C189" t="s">
@@ -9972,7 +9950,7 @@
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="41" t="s">
+      <c r="B190" s="39" t="s">
         <v>534</v>
       </c>
       <c r="C190" t="s">
@@ -9995,7 +9973,7 @@
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="41" t="s">
+      <c r="B191" s="39" t="s">
         <v>536</v>
       </c>
       <c r="C191" t="s">
@@ -10018,7 +9996,7 @@
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="41" t="s">
+      <c r="B192" s="39" t="s">
         <v>538</v>
       </c>
       <c r="C192" t="s">
@@ -10041,7 +10019,7 @@
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="41" t="s">
+      <c r="B193" s="39" t="s">
         <v>540</v>
       </c>
       <c r="C193" t="s">
@@ -10064,7 +10042,7 @@
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="41" t="s">
+      <c r="B194" s="39" t="s">
         <v>542</v>
       </c>
       <c r="C194" t="s">
@@ -10087,7 +10065,7 @@
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="41" t="s">
+      <c r="B195" s="39" t="s">
         <v>544</v>
       </c>
       <c r="C195" t="s">
@@ -10110,7 +10088,7 @@
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="41" t="s">
+      <c r="B196" s="39" t="s">
         <v>546</v>
       </c>
       <c r="C196" t="s">
@@ -10133,7 +10111,7 @@
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="41" t="s">
+      <c r="B197" s="39" t="s">
         <v>548</v>
       </c>
       <c r="C197" t="s">
@@ -10156,7 +10134,7 @@
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="41" t="s">
+      <c r="B198" s="39" t="s">
         <v>550</v>
       </c>
       <c r="C198" t="s">
@@ -10179,7 +10157,7 @@
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="41" t="s">
+      <c r="B199" s="39" t="s">
         <v>552</v>
       </c>
       <c r="C199" t="s">
@@ -10202,7 +10180,7 @@
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="41" t="s">
+      <c r="B200" s="39" t="s">
         <v>554</v>
       </c>
       <c r="C200" t="s">
@@ -10225,7 +10203,7 @@
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="41" t="s">
+      <c r="B201" s="39" t="s">
         <v>556</v>
       </c>
       <c r="C201" t="s">
@@ -10248,7 +10226,7 @@
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="41" t="s">
+      <c r="B202" s="39" t="s">
         <v>558</v>
       </c>
       <c r="C202" t="s">
@@ -10271,7 +10249,7 @@
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="39" t="s">
         <v>560</v>
       </c>
       <c r="C203" t="s">
@@ -10294,7 +10272,7 @@
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="41" t="s">
+      <c r="B204" s="39" t="s">
         <v>604</v>
       </c>
       <c r="C204" t="s">
@@ -10320,7 +10298,7 @@
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="41" t="s">
+      <c r="B205" s="39" t="s">
         <v>606</v>
       </c>
       <c r="C205" t="s">
@@ -10346,7 +10324,7 @@
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="41" t="s">
+      <c r="B206" s="39" t="s">
         <v>608</v>
       </c>
       <c r="C206" t="s">
@@ -10372,7 +10350,7 @@
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="41" t="s">
+      <c r="B207" s="39" t="s">
         <v>565</v>
       </c>
       <c r="C207" t="s">
@@ -10395,7 +10373,7 @@
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="41" t="s">
+      <c r="B208" s="39" t="s">
         <v>567</v>
       </c>
       <c r="C208" t="s">
@@ -10418,7 +10396,7 @@
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="41" t="s">
+      <c r="B209" s="39" t="s">
         <v>569</v>
       </c>
       <c r="C209" t="s">
@@ -10441,7 +10419,7 @@
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="41" t="s">
+      <c r="B210" s="39" t="s">
         <v>571</v>
       </c>
       <c r="C210" t="s">
@@ -10464,7 +10442,7 @@
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="41" t="s">
+      <c r="B211" s="39" t="s">
         <v>573</v>
       </c>
       <c r="C211" t="s">
@@ -10487,7 +10465,7 @@
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="41" t="s">
+      <c r="B212" s="39" t="s">
         <v>575</v>
       </c>
       <c r="C212" t="s">
@@ -10510,7 +10488,7 @@
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="41" t="s">
+      <c r="B213" s="39" t="s">
         <v>577</v>
       </c>
       <c r="C213" t="s">
@@ -10533,7 +10511,7 @@
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="41" t="s">
+      <c r="B214" s="39" t="s">
         <v>579</v>
       </c>
       <c r="C214" t="s">
@@ -10556,7 +10534,7 @@
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="41" t="s">
+      <c r="B215" s="39" t="s">
         <v>581</v>
       </c>
       <c r="C215" t="s">
@@ -10579,7 +10557,7 @@
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="41" t="s">
+      <c r="B216" s="39" t="s">
         <v>583</v>
       </c>
       <c r="C216" t="s">
@@ -10602,7 +10580,7 @@
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="39" t="s">
         <v>585</v>
       </c>
       <c r="C217" t="s">
@@ -10625,7 +10603,7 @@
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="41" t="s">
+      <c r="B218" s="39" t="s">
         <v>587</v>
       </c>
       <c r="C218" t="s">
@@ -10648,7 +10626,7 @@
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="41" t="s">
+      <c r="B219" s="39" t="s">
         <v>589</v>
       </c>
       <c r="C219" t="s">
@@ -10671,7 +10649,7 @@
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="41" t="s">
+      <c r="B220" s="39" t="s">
         <v>591</v>
       </c>
       <c r="C220" t="s">
@@ -10694,7 +10672,7 @@
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="41" t="s">
+      <c r="B221" s="39" t="s">
         <v>593</v>
       </c>
       <c r="C221" t="s">
@@ -10717,7 +10695,7 @@
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="41" t="s">
+      <c r="B222" s="39" t="s">
         <v>595</v>
       </c>
       <c r="C222" t="s">
@@ -10740,7 +10718,7 @@
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="41" t="s">
+      <c r="B223" s="39" t="s">
         <v>597</v>
       </c>
       <c r="C223" t="s">
@@ -10763,7 +10741,7 @@
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="41" t="s">
+      <c r="B224" s="39" t="s">
         <v>599</v>
       </c>
       <c r="C224" t="s">
@@ -10786,7 +10764,7 @@
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="41" t="s">
+      <c r="B225" s="39" t="s">
         <v>647</v>
       </c>
       <c r="C225" t="s">
@@ -10809,7 +10787,7 @@
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="41" t="s">
+      <c r="B226" s="39" t="s">
         <v>613</v>
       </c>
       <c r="C226" s="8" t="s">
@@ -10832,7 +10810,7 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="41" t="s">
+      <c r="B227" s="39" t="s">
         <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
@@ -10855,7 +10833,7 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="41" t="s">
+      <c r="B228" s="39" t="s">
         <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
@@ -10878,7 +10856,7 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="41" t="s">
+      <c r="B229" s="39" t="s">
         <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -10901,7 +10879,7 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="41" t="s">
+      <c r="B230" s="39" t="s">
         <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
@@ -10924,7 +10902,7 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="41" t="s">
+      <c r="B231" s="39" t="s">
         <v>624</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -10947,7 +10925,7 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="41" t="s">
+      <c r="B232" s="39" t="s">
         <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
@@ -10970,7 +10948,7 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="41" t="s">
+      <c r="B233" s="39" t="s">
         <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -10993,7 +10971,7 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="41" t="s">
+      <c r="B234" s="39" t="s">
         <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
@@ -11016,7 +10994,7 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="41" t="s">
+      <c r="B235" s="39" t="s">
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
@@ -11042,7 +11020,7 @@
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="41" t="s">
+      <c r="B236" s="39" t="s">
         <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -11061,14 +11039,14 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="41" t="s">
+      <c r="B237" s="39" t="s">
         <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
@@ -11094,7 +11072,7 @@
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="41" t="s">
+      <c r="B238" s="39" t="s">
         <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -11120,7 +11098,7 @@
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="41" t="s">
+      <c r="B239" s="39" t="s">
         <v>675</v>
       </c>
       <c r="C239" s="8" t="s">
@@ -11146,7 +11124,7 @@
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="41" t="s">
+      <c r="B240" s="39" t="s">
         <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -11172,7 +11150,7 @@
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="41" t="s">
+      <c r="B241" s="39" t="s">
         <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -11198,7 +11176,7 @@
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="41" t="s">
+      <c r="B242" s="39" t="s">
         <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
@@ -11224,7 +11202,7 @@
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="41" t="s">
+      <c r="B243" s="39" t="s">
         <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -11250,7 +11228,7 @@
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="41" t="s">
+      <c r="B244" s="39" t="s">
         <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
@@ -11276,7 +11254,7 @@
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="41" t="s">
+      <c r="B245" s="39" t="s">
         <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
@@ -11302,7 +11280,7 @@
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="41" t="s">
+      <c r="B246" s="39" t="s">
         <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
@@ -11328,7 +11306,7 @@
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="41" t="s">
+      <c r="B247" s="39" t="s">
         <v>710</v>
       </c>
       <c r="C247" s="8" t="s">
@@ -11354,7 +11332,7 @@
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="41" t="s">
+      <c r="B248" s="39" t="s">
         <v>714</v>
       </c>
       <c r="C248" s="8" t="s">
@@ -11380,7 +11358,7 @@
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="41" t="s">
+      <c r="B249" s="39" t="s">
         <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
@@ -11406,7 +11384,7 @@
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="41" t="s">
+      <c r="B250" s="39" t="s">
         <v>722</v>
       </c>
       <c r="C250" s="8" t="s">
@@ -11432,7 +11410,7 @@
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="41" t="s">
+      <c r="B251" s="39" t="s">
         <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
@@ -11458,7 +11436,7 @@
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="41" t="s">
+      <c r="B252" s="39" t="s">
         <v>730</v>
       </c>
       <c r="C252" t="s">
@@ -11484,26 +11462,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="42" t="s">
+      <c r="B253" s="40" t="s">
+        <v>950</v>
+      </c>
+      <c r="C253" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="D253" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="C253" s="25" t="s">
-        <v>732</v>
-      </c>
-      <c r="D253" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="E253" s="25">
-        <v>1</v>
-      </c>
-      <c r="F253" s="25">
-        <v>1</v>
-      </c>
-      <c r="G253" s="25">
-        <v>1</v>
-      </c>
-      <c r="H253" s="25"/>
-      <c r="I253" s="24" t="s">
+      <c r="E253" s="23">
+        <v>1</v>
+      </c>
+      <c r="F253" s="23">
+        <v>1</v>
+      </c>
+      <c r="G253" s="23">
+        <v>1</v>
+      </c>
+      <c r="H253" s="23"/>
+      <c r="I253" s="22" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11511,7 +11489,7 @@
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="41" t="s">
+      <c r="B254" s="39" t="s">
         <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
@@ -11537,7 +11515,7 @@
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="41" t="s">
+      <c r="B255" s="39" t="s">
         <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
@@ -11559,38 +11537,38 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="22" customFormat="1">
+    <row r="256" spans="1:9" s="21" customFormat="1">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="50" t="s">
+      <c r="B256" s="48" t="s">
         <v>743</v>
       </c>
-      <c r="C256" s="48" t="s">
-        <v>914</v>
-      </c>
-      <c r="D256" s="48" t="s">
+      <c r="C256" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="D256" s="46" t="s">
         <v>744</v>
       </c>
-      <c r="E256" s="49">
-        <v>0</v>
-      </c>
-      <c r="F256" s="49">
-        <v>0</v>
-      </c>
-      <c r="G256" s="49">
-        <v>0</v>
-      </c>
-      <c r="H256" s="49"/>
-      <c r="I256" s="48" t="s">
-        <v>1031</v>
+      <c r="E256" s="47">
+        <v>0</v>
+      </c>
+      <c r="F256" s="47">
+        <v>0</v>
+      </c>
+      <c r="G256" s="47">
+        <v>0</v>
+      </c>
+      <c r="H256" s="47"/>
+      <c r="I256" s="46" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="26" t="s">
+      <c r="B257" s="24" t="s">
         <v>748</v>
       </c>
       <c r="C257" s="14" t="s">
@@ -11616,7 +11594,7 @@
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="26" t="s">
+      <c r="B258" s="24" t="s">
         <v>749</v>
       </c>
       <c r="C258" s="14" t="s">
@@ -11642,7 +11620,7 @@
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="26" t="s">
+      <c r="B259" s="24" t="s">
         <v>752</v>
       </c>
       <c r="C259" s="14" t="s">
@@ -11668,7 +11646,7 @@
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="26" t="s">
+      <c r="B260" s="24" t="s">
         <v>756</v>
       </c>
       <c r="C260" s="14" t="s">
@@ -11694,7 +11672,7 @@
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="41" t="s">
+      <c r="B261" s="39" t="s">
         <v>760</v>
       </c>
       <c r="C261" s="8" t="s">
@@ -11720,7 +11698,7 @@
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="26" t="s">
+      <c r="B262" s="24" t="s">
         <v>764</v>
       </c>
       <c r="C262" s="8" t="s">
@@ -11746,7 +11724,7 @@
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="26" t="s">
+      <c r="B263" s="24" t="s">
         <v>767</v>
       </c>
       <c r="C263" s="14" t="s">
@@ -11772,7 +11750,7 @@
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="26" t="s">
+      <c r="B264" s="24" t="s">
         <v>771</v>
       </c>
       <c r="C264" s="14" t="s">
@@ -11798,7 +11776,7 @@
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="26" t="s">
+      <c r="B265" s="24" t="s">
         <v>774</v>
       </c>
       <c r="C265" s="14" t="s">
@@ -11824,7 +11802,7 @@
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="26" t="s">
+      <c r="B266" s="24" t="s">
         <v>778</v>
       </c>
       <c r="C266" s="14" t="s">
@@ -11850,7 +11828,7 @@
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="26" t="s">
+      <c r="B267" s="24" t="s">
         <v>782</v>
       </c>
       <c r="C267" s="14" t="s">
@@ -11876,7 +11854,7 @@
       <c r="A268" s="15">
         <v>267</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B268" s="24" t="s">
         <v>788</v>
       </c>
       <c r="C268" s="14" t="s">
@@ -11902,7 +11880,7 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="26" t="s">
+      <c r="B269" s="24" t="s">
         <v>789</v>
       </c>
       <c r="C269" s="14" t="s">
@@ -11929,7 +11907,7 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="26" t="s">
+      <c r="B270" s="24" t="s">
         <v>791</v>
       </c>
       <c r="C270" s="14" t="s">
@@ -11956,7 +11934,7 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="26" t="s">
+      <c r="B271" s="24" t="s">
         <v>795</v>
       </c>
       <c r="C271" s="14" t="s">
@@ -11983,7 +11961,7 @@
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="26" t="s">
+      <c r="B272" s="24" t="s">
         <v>799</v>
       </c>
       <c r="C272" s="14" t="s">
@@ -12010,7 +11988,7 @@
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B273" s="24" t="s">
         <v>803</v>
       </c>
       <c r="C273" s="14" t="s">
@@ -12030,14 +12008,14 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="26" t="s">
+      <c r="B274" s="24" t="s">
         <v>837</v>
       </c>
       <c r="C274" s="14" t="s">
@@ -12060,67 +12038,66 @@
         <v>808</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="20" customFormat="1" ht="17.25">
-      <c r="A275" s="15">
+    <row r="275" spans="1:9" s="47" customFormat="1">
+      <c r="A275" s="44">
         <v>274</v>
       </c>
-      <c r="B275" s="26" t="s">
+      <c r="B275" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="C275" s="14" t="s">
+      <c r="C275" s="46" t="s">
         <v>809</v>
       </c>
-      <c r="D275" s="17" t="s">
+      <c r="D275" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="E275" s="16">
-        <v>0</v>
-      </c>
-      <c r="F275" s="16">
-        <v>1</v>
-      </c>
-      <c r="G275" s="16">
-        <v>1</v>
-      </c>
-      <c r="H275" s="16"/>
-      <c r="I275" s="23" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="49" customFormat="1">
-      <c r="A276" s="46">
+      <c r="E275" s="47">
+        <v>1</v>
+      </c>
+      <c r="F275" s="47">
+        <v>1</v>
+      </c>
+      <c r="G275" s="47">
+        <v>1</v>
+      </c>
+      <c r="I275" s="46" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="47" customFormat="1">
+      <c r="A276" s="44">
         <v>275</v>
       </c>
-      <c r="B276" s="50" t="s">
+      <c r="B276" s="48" t="s">
         <v>812</v>
       </c>
-      <c r="C276" s="48" t="s">
+      <c r="C276" s="46" t="s">
         <v>813</v>
       </c>
-      <c r="E276" s="49">
-        <v>1</v>
-      </c>
-      <c r="F276" s="49">
-        <v>1</v>
-      </c>
-      <c r="G276" s="49">
-        <v>1</v>
-      </c>
-      <c r="I276" s="48" t="s">
-        <v>1040</v>
+      <c r="E276" s="47">
+        <v>1</v>
+      </c>
+      <c r="F276" s="47">
+        <v>1</v>
+      </c>
+      <c r="G276" s="47">
+        <v>1</v>
+      </c>
+      <c r="I276" s="46" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="B277" s="24" t="s">
         <v>814</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="D277" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="D277" s="24" t="s">
         <v>815</v>
       </c>
       <c r="E277" s="14">
@@ -12134,14 +12111,14 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B278" s="24" t="s">
         <v>824</v>
       </c>
       <c r="C278" s="14" t="s">
@@ -12167,7 +12144,7 @@
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="26" t="s">
+      <c r="B279" s="24" t="s">
         <v>819</v>
       </c>
       <c r="C279" s="14" t="s">
@@ -12190,7 +12167,7 @@
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="26" t="s">
+      <c r="B280" s="24" t="s">
         <v>823</v>
       </c>
       <c r="C280" s="14" t="s">
@@ -12216,7 +12193,7 @@
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="26" t="s">
+      <c r="B281" s="24" t="s">
         <v>825</v>
       </c>
       <c r="C281" s="14" t="s">
@@ -12242,7 +12219,7 @@
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="26" t="s">
+      <c r="B282" s="24" t="s">
         <v>835</v>
       </c>
       <c r="C282" s="14" t="s">
@@ -12264,55 +12241,55 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="29" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" spans="1:9" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="28" t="s">
+      <c r="B283" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="C283" s="27" t="s">
+      <c r="C283" s="25" t="s">
         <v>832</v>
       </c>
-      <c r="D283" s="28" t="s">
+      <c r="D283" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="E283" s="29">
-        <v>1</v>
-      </c>
-      <c r="F283" s="29">
-        <v>1</v>
-      </c>
-      <c r="G283" s="29">
-        <v>1</v>
-      </c>
-      <c r="I283" s="30" t="s">
+      <c r="E283" s="27">
+        <v>1</v>
+      </c>
+      <c r="F283" s="27">
+        <v>1</v>
+      </c>
+      <c r="G283" s="27">
+        <v>1</v>
+      </c>
+      <c r="I283" s="28" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="29" customFormat="1">
+    <row r="284" spans="1:9" s="27" customFormat="1">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="28" t="s">
+      <c r="B284" s="26" t="s">
         <v>839</v>
       </c>
-      <c r="C284" s="27" t="s">
+      <c r="C284" s="25" t="s">
         <v>840</v>
       </c>
-      <c r="D284" s="28" t="s">
+      <c r="D284" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="E284" s="29">
-        <v>1</v>
-      </c>
-      <c r="F284" s="29">
-        <v>1</v>
-      </c>
-      <c r="G284" s="29">
-        <v>1</v>
-      </c>
-      <c r="I284" s="30" t="s">
+      <c r="E284" s="27">
+        <v>1</v>
+      </c>
+      <c r="F284" s="27">
+        <v>1</v>
+      </c>
+      <c r="G284" s="27">
+        <v>1</v>
+      </c>
+      <c r="I284" s="28" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12320,7 +12297,7 @@
       <c r="A285" s="15">
         <v>284</v>
       </c>
-      <c r="B285" s="26" t="s">
+      <c r="B285" s="24" t="s">
         <v>842</v>
       </c>
       <c r="C285" s="14" t="s">
@@ -12342,55 +12319,55 @@
         <v>845</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="29" customFormat="1">
+    <row r="286" spans="1:9" s="27" customFormat="1">
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="43" t="s">
+      <c r="B286" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="C286" s="27" t="s">
+      <c r="C286" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="D286" s="28" t="s">
+      <c r="D286" s="26" t="s">
         <v>846</v>
       </c>
-      <c r="E286" s="29">
-        <v>1</v>
-      </c>
-      <c r="F286" s="29">
-        <v>1</v>
-      </c>
-      <c r="G286" s="29">
-        <v>1</v>
-      </c>
-      <c r="I286" s="30" t="s">
+      <c r="E286" s="27">
+        <v>1</v>
+      </c>
+      <c r="F286" s="27">
+        <v>1</v>
+      </c>
+      <c r="G286" s="27">
+        <v>1</v>
+      </c>
+      <c r="I286" s="28" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="29" customFormat="1">
+    <row r="287" spans="1:9" s="27" customFormat="1">
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="43" t="s">
+      <c r="B287" s="41" t="s">
         <v>849</v>
       </c>
-      <c r="C287" s="27" t="s">
+      <c r="C287" s="25" t="s">
         <v>850</v>
       </c>
-      <c r="D287" s="28" t="s">
+      <c r="D287" s="26" t="s">
         <v>851</v>
       </c>
-      <c r="E287" s="29">
-        <v>1</v>
-      </c>
-      <c r="F287" s="29">
-        <v>1</v>
-      </c>
-      <c r="G287" s="29">
-        <v>1</v>
-      </c>
-      <c r="I287" s="30" t="s">
+      <c r="E287" s="27">
+        <v>1</v>
+      </c>
+      <c r="F287" s="27">
+        <v>1</v>
+      </c>
+      <c r="G287" s="27">
+        <v>1</v>
+      </c>
+      <c r="I287" s="28" t="s">
         <v>852</v>
       </c>
     </row>
@@ -12398,7 +12375,7 @@
       <c r="A288" s="15">
         <v>287</v>
       </c>
-      <c r="B288" s="26" t="s">
+      <c r="B288" s="24" t="s">
         <v>853</v>
       </c>
       <c r="C288" s="14" t="s">
@@ -12417,188 +12394,188 @@
         <v>0</v>
       </c>
       <c r="I288" s="14" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="29" customFormat="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="27" customFormat="1">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="43" t="s">
+      <c r="B289" s="41" t="s">
         <v>856</v>
       </c>
-      <c r="C289" s="27" t="s">
+      <c r="C289" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="D289" s="28" t="s">
+      <c r="D289" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="E289" s="29">
-        <v>1</v>
-      </c>
-      <c r="F289" s="29">
-        <v>1</v>
-      </c>
-      <c r="G289" s="29">
-        <v>1</v>
-      </c>
-      <c r="I289" s="30" t="s">
+      <c r="E289" s="27">
+        <v>1</v>
+      </c>
+      <c r="F289" s="27">
+        <v>1</v>
+      </c>
+      <c r="G289" s="27">
+        <v>1</v>
+      </c>
+      <c r="I289" s="28" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="29" customFormat="1">
+    <row r="290" spans="1:9" s="27" customFormat="1">
       <c r="A290" s="15">
         <v>289</v>
       </c>
-      <c r="B290" s="28" t="s">
+      <c r="B290" s="26" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="27" t="s">
+      <c r="C290" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="D290" s="28" t="s">
+      <c r="D290" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="E290" s="29">
-        <v>1</v>
-      </c>
-      <c r="F290" s="29">
-        <v>1</v>
-      </c>
-      <c r="G290" s="29">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
+      <c r="E290" s="27">
+        <v>1</v>
+      </c>
+      <c r="F290" s="27">
+        <v>1</v>
+      </c>
+      <c r="G290" s="27">
+        <v>1</v>
+      </c>
+      <c r="I290" s="28" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="29" customFormat="1">
+    <row r="291" spans="1:9" s="27" customFormat="1">
       <c r="A291" s="15">
         <v>290</v>
       </c>
-      <c r="B291" s="28" t="s">
+      <c r="B291" s="26" t="s">
         <v>864</v>
       </c>
-      <c r="C291" s="27" t="s">
+      <c r="C291" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="D291" s="28" t="s">
+      <c r="D291" s="26" t="s">
         <v>866</v>
       </c>
-      <c r="E291" s="29">
-        <v>1</v>
-      </c>
-      <c r="F291" s="29">
-        <v>1</v>
-      </c>
-      <c r="G291" s="29">
-        <v>1</v>
-      </c>
-      <c r="I291" s="30" t="s">
+      <c r="E291" s="27">
+        <v>1</v>
+      </c>
+      <c r="F291" s="27">
+        <v>1</v>
+      </c>
+      <c r="G291" s="27">
+        <v>1</v>
+      </c>
+      <c r="I291" s="28" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="29" customFormat="1">
+    <row r="292" spans="1:9" s="27" customFormat="1">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="28" t="s">
+      <c r="B292" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="C292" s="27" t="s">
+      <c r="C292" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="D292" s="28" t="s">
+      <c r="D292" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="E292" s="29">
-        <v>1</v>
-      </c>
-      <c r="F292" s="29">
-        <v>1</v>
-      </c>
-      <c r="G292" s="29">
-        <v>1</v>
-      </c>
-      <c r="I292" s="30" t="s">
+      <c r="E292" s="27">
+        <v>1</v>
+      </c>
+      <c r="F292" s="27">
+        <v>1</v>
+      </c>
+      <c r="G292" s="27">
+        <v>1</v>
+      </c>
+      <c r="I292" s="28" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="29" customFormat="1">
+    <row r="293" spans="1:9" s="27" customFormat="1">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="28" t="s">
+      <c r="B293" s="26" t="s">
         <v>868</v>
       </c>
-      <c r="C293" s="27" t="s">
+      <c r="C293" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="D293" s="28" t="s">
+      <c r="D293" s="26" t="s">
         <v>870</v>
       </c>
-      <c r="E293" s="29">
-        <v>1</v>
-      </c>
-      <c r="F293" s="29">
-        <v>1</v>
-      </c>
-      <c r="G293" s="29">
-        <v>1</v>
-      </c>
-      <c r="I293" s="30" t="s">
+      <c r="E293" s="27">
+        <v>1</v>
+      </c>
+      <c r="F293" s="27">
+        <v>1</v>
+      </c>
+      <c r="G293" s="27">
+        <v>1</v>
+      </c>
+      <c r="I293" s="28" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="29" customFormat="1">
+    <row r="294" spans="1:9" s="27" customFormat="1">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="28" t="s">
+      <c r="B294" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="C294" s="27" t="s">
+      <c r="C294" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="D294" s="28" t="s">
+      <c r="D294" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="E294" s="29">
-        <v>1</v>
-      </c>
-      <c r="F294" s="29">
-        <v>1</v>
-      </c>
-      <c r="G294" s="29">
-        <v>1</v>
-      </c>
-      <c r="I294" s="30" t="s">
+      <c r="E294" s="27">
+        <v>1</v>
+      </c>
+      <c r="F294" s="27">
+        <v>1</v>
+      </c>
+      <c r="G294" s="27">
+        <v>1</v>
+      </c>
+      <c r="I294" s="28" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="29" customFormat="1">
+    <row r="295" spans="1:9" s="27" customFormat="1">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="28" t="s">
+      <c r="B295" s="26" t="s">
         <v>877</v>
       </c>
-      <c r="C295" s="27" t="s">
+      <c r="C295" s="25" t="s">
         <v>878</v>
       </c>
-      <c r="D295" s="28" t="s">
+      <c r="D295" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="E295" s="29">
-        <v>1</v>
-      </c>
-      <c r="F295" s="29">
-        <v>1</v>
-      </c>
-      <c r="G295" s="29">
-        <v>1</v>
-      </c>
-      <c r="I295" s="30" t="s">
+      <c r="E295" s="27">
+        <v>1</v>
+      </c>
+      <c r="F295" s="27">
+        <v>1</v>
+      </c>
+      <c r="G295" s="27">
+        <v>1</v>
+      </c>
+      <c r="I295" s="28" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12792,7 +12769,7 @@
         <v>905</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>906</v>
@@ -12815,13 +12792,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12833,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12841,25 +12818,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C305" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>930</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>957</v>
-      </c>
-      <c r="E305" s="16">
-        <v>1</v>
-      </c>
-      <c r="F305" s="16">
-        <v>1</v>
-      </c>
-      <c r="G305" s="16">
-        <v>1</v>
-      </c>
-      <c r="I305" s="14" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12867,13 +12844,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D306" s="17" t="s">
         <v>953</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>954</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12892,26 +12869,26 @@
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="26" t="s">
+      <c r="B307" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>912</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12919,13 +12896,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12937,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12945,25 +12922,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="C309" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="D309" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>922</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12971,14 +12948,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D310" s="17" t="s">
         <v>924</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>925</v>
-      </c>
       <c r="E310" s="16">
         <v>1</v>
       </c>
@@ -12989,33 +12966,33 @@
         <v>1</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="49" customFormat="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="47" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="47" t="s">
-        <v>969</v>
-      </c>
-      <c r="C311" s="48" t="s">
+      <c r="B311" s="45" t="s">
+        <v>968</v>
+      </c>
+      <c r="C311" s="46" t="s">
+        <v>926</v>
+      </c>
+      <c r="D311" s="45" t="s">
         <v>927</v>
       </c>
-      <c r="D311" s="47" t="s">
-        <v>928</v>
-      </c>
-      <c r="E311" s="49">
-        <v>1</v>
-      </c>
-      <c r="F311" s="49">
-        <v>1</v>
-      </c>
-      <c r="G311" s="49">
-        <v>1</v>
-      </c>
-      <c r="I311" s="48" t="s">
-        <v>932</v>
+      <c r="E311" s="47">
+        <v>1</v>
+      </c>
+      <c r="F311" s="47">
+        <v>1</v>
+      </c>
+      <c r="G311" s="47">
+        <v>1</v>
+      </c>
+      <c r="I311" s="46" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -13023,13 +13000,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="C312" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="D312" s="17" t="s">
         <v>934</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>935</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -13045,14 +13022,14 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="39" t="s">
-        <v>937</v>
+      <c r="B313" s="37" t="s">
+        <v>936</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -13064,21 +13041,21 @@
         <v>1</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="39" t="s">
-        <v>938</v>
+      <c r="B314" s="37" t="s">
+        <v>937</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>940</v>
-      </c>
-      <c r="D314" s="38" t="s">
-        <v>945</v>
+        <v>939</v>
+      </c>
+      <c r="D314" s="36" t="s">
+        <v>944</v>
       </c>
       <c r="E314" s="16">
         <v>0</v>
@@ -13098,13 +13075,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13116,21 +13093,21 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="39" t="s">
-        <v>949</v>
+      <c r="B316" s="37" t="s">
+        <v>948</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>947</v>
-      </c>
-      <c r="D316" s="38" t="s">
         <v>946</v>
+      </c>
+      <c r="D316" s="36" t="s">
+        <v>945</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13150,22 +13127,22 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="C317" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="E317" s="16">
+        <v>0</v>
+      </c>
+      <c r="F317" s="16">
+        <v>1</v>
+      </c>
+      <c r="G317" s="16">
+        <v>1</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>991</v>
-      </c>
-      <c r="E317" s="16">
-        <v>0</v>
-      </c>
-      <c r="F317" s="16">
-        <v>1</v>
-      </c>
-      <c r="G317" s="16">
-        <v>1</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="16" customFormat="1">
@@ -13173,22 +13150,22 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="C318" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C318" s="14" t="s">
+      <c r="E318" s="16">
+        <v>0</v>
+      </c>
+      <c r="F318" s="16">
+        <v>1</v>
+      </c>
+      <c r="G318" s="16">
+        <v>1</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>994</v>
-      </c>
-      <c r="E318" s="16">
-        <v>0</v>
-      </c>
-      <c r="F318" s="16">
-        <v>1</v>
-      </c>
-      <c r="G318" s="16">
-        <v>1</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="16" customFormat="1">
@@ -13196,11 +13173,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="C319" s="16" t="s">
         <v>996</v>
       </c>
-      <c r="C319" s="16" t="s">
-        <v>997</v>
-      </c>
       <c r="E319" s="16">
         <v>0</v>
       </c>
@@ -13211,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="16" customFormat="1">
@@ -13219,11 +13196,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C320" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="C320" s="14" t="s">
-        <v>999</v>
-      </c>
       <c r="E320" s="16">
         <v>0</v>
       </c>
@@ -13234,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="16" customFormat="1">
@@ -13242,11 +13219,11 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="C321" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="C321" s="14" t="s">
-        <v>1001</v>
-      </c>
       <c r="E321" s="16">
         <v>0</v>
       </c>
@@ -13257,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="16" customFormat="1">
@@ -13265,11 +13242,11 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C322" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="C322" s="14" t="s">
-        <v>1003</v>
-      </c>
       <c r="E322" s="16">
         <v>0</v>
       </c>
@@ -13280,30 +13257,30 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="45" t="s">
+      <c r="B323" s="43" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="C323" s="14" t="s">
+      <c r="E323" s="16">
+        <v>0</v>
+      </c>
+      <c r="F323" s="16">
+        <v>1</v>
+      </c>
+      <c r="G323" s="16">
+        <v>1</v>
+      </c>
+      <c r="I323" s="18" t="s">
         <v>1005</v>
-      </c>
-      <c r="E323" s="16">
-        <v>0</v>
-      </c>
-      <c r="F323" s="16">
-        <v>1</v>
-      </c>
-      <c r="G323" s="16">
-        <v>1</v>
-      </c>
-      <c r="I323" s="18" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13311,25 +13288,25 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="D324" s="17" t="s">
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>1</v>
+      </c>
+      <c r="G324" s="16">
+        <v>1</v>
+      </c>
+      <c r="I324" s="14" t="s">
         <v>962</v>
-      </c>
-      <c r="E324" s="16">
-        <v>0</v>
-      </c>
-      <c r="F324" s="16">
-        <v>1</v>
-      </c>
-      <c r="G324" s="16">
-        <v>1</v>
-      </c>
-      <c r="I324" s="14" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13337,14 +13314,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="D325" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>966</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13355,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13363,11 +13340,11 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="C326" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="C326" s="14" t="s">
-        <v>968</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13378,15 +13355,15 @@
         <v>1</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="26" t="s">
-        <v>970</v>
+      <c r="B327" s="24" t="s">
+        <v>969</v>
       </c>
       <c r="E327" s="16">
         <v>1</v>
@@ -13406,14 +13383,14 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="C328" s="17" t="s">
-        <v>972</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>974</v>
-      </c>
       <c r="E328" s="16">
         <v>0</v>
       </c>
@@ -13424,10 +13401,10 @@
         <v>1</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13435,10 +13412,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E329" s="16">
         <v>0</v>
@@ -13450,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13458,10 +13435,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E330" s="16">
         <v>0</v>
@@ -13473,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="16" customFormat="1">
@@ -13481,22 +13458,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C331" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="E331" s="16">
+        <v>0</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>988</v>
-      </c>
-      <c r="E331" s="16">
-        <v>0</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="16" customFormat="1">
@@ -13504,14 +13481,14 @@
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D332" s="17" t="s">
         <v>1011</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1012</v>
-      </c>
       <c r="E332" s="16">
         <v>0</v>
       </c>
@@ -13522,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="16" customFormat="1">
@@ -13530,25 +13507,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D333" s="17" t="s">
         <v>1008</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D333" s="17" t="s">
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="16" customFormat="1">
@@ -13556,10 +13533,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -13571,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="16" customFormat="1">
@@ -13579,10 +13556,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -13594,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="16" customFormat="1">
@@ -13602,10 +13579,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13617,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="16" customFormat="1">
@@ -13625,11 +13602,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="C337" s="14" t="s">
-        <v>1017</v>
-      </c>
       <c r="E337" s="16">
         <v>0</v>
       </c>
@@ -13640,33 +13617,33 @@
         <v>1</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="16" customFormat="1">
       <c r="A338" s="15">
         <v>337</v>
       </c>
-      <c r="B338" s="26" t="s">
-        <v>1021</v>
+      <c r="B338" s="24" t="s">
+        <v>1020</v>
       </c>
       <c r="C338" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D338" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="D338" s="14" t="s">
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="16" customFormat="1">
@@ -13674,10 +13651,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E339" s="16">
         <v>0</v>
@@ -13689,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="I339" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="16" customFormat="1">
@@ -13697,10 +13674,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E340" s="16">
         <v>0</v>
@@ -13712,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="16" customFormat="1">
@@ -13720,146 +13697,146 @@
         <v>340</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C341" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E341" s="16">
+        <v>0</v>
+      </c>
+      <c r="F341" s="16">
+        <v>1</v>
+      </c>
+      <c r="G341" s="16">
+        <v>1</v>
+      </c>
+      <c r="I341" s="14" t="s">
         <v>1030</v>
-      </c>
-      <c r="E341" s="16">
-        <v>0</v>
-      </c>
-      <c r="F341" s="16">
-        <v>1</v>
-      </c>
-      <c r="G341" s="16">
-        <v>1</v>
-      </c>
-      <c r="I341" s="14" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="16" customFormat="1">
       <c r="A342" s="15">
         <v>341</v>
       </c>
-      <c r="B342" s="26" t="s">
+      <c r="B342" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C342" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="D342" s="16" t="s">
         <v>1033</v>
       </c>
-      <c r="D342" s="16" t="s">
+      <c r="E342" s="16">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16">
+        <v>1</v>
+      </c>
+      <c r="G342" s="16">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="E342" s="16">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16">
-        <v>1</v>
-      </c>
-      <c r="G342" s="16">
-        <v>1</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" s="49" customFormat="1">
+    </row>
+    <row r="343" spans="1:9" s="47" customFormat="1">
       <c r="A343" s="15">
         <v>342</v>
       </c>
-      <c r="B343" s="47" t="s">
+      <c r="B343" s="45" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C343" s="46" t="s">
         <v>1038</v>
       </c>
-      <c r="C343" s="48" t="s">
+      <c r="E343" s="47">
+        <v>1</v>
+      </c>
+      <c r="F343" s="47">
+        <v>1</v>
+      </c>
+      <c r="G343" s="47">
+        <v>1</v>
+      </c>
+      <c r="I343" s="46" t="s">
         <v>1039</v>
-      </c>
-      <c r="E343" s="49">
-        <v>1</v>
-      </c>
-      <c r="F343" s="49">
-        <v>1</v>
-      </c>
-      <c r="G343" s="49">
-        <v>1</v>
-      </c>
-      <c r="I343" s="48" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="15">
         <v>343</v>
       </c>
-      <c r="B344" s="41" t="s">
+      <c r="B344" s="39" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C344" s="18" t="s">
         <v>1041</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="D344" t="s">
         <v>1042</v>
       </c>
-      <c r="D344" t="s">
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>1</v>
+      </c>
+      <c r="G344" s="16">
+        <v>1</v>
+      </c>
+      <c r="I344" s="14" t="s">
         <v>1043</v>
-      </c>
-      <c r="E344" s="16">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16">
-        <v>1</v>
-      </c>
-      <c r="G344" s="16">
-        <v>1</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="15">
         <v>344</v>
       </c>
-      <c r="B345" s="41" t="s">
+      <c r="B345" s="39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D345" t="s">
         <v>1045</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>1</v>
+      </c>
+      <c r="G345" s="16">
+        <v>1</v>
+      </c>
+      <c r="I345" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="D345" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E345" s="16">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16">
-        <v>1</v>
-      </c>
-      <c r="G345" s="16">
-        <v>1</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" s="49" customFormat="1">
+    </row>
+    <row r="346" spans="1:9" s="47" customFormat="1">
       <c r="A346" s="15">
         <v>345</v>
       </c>
-      <c r="B346" s="47" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C346" s="51" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E346" s="49">
-        <v>0</v>
-      </c>
-      <c r="F346" s="49">
-        <v>1</v>
-      </c>
-      <c r="G346" s="49">
-        <v>1</v>
-      </c>
-      <c r="I346" s="48" t="s">
-        <v>1040</v>
+      <c r="B346" s="45" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C346" s="49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E346" s="47">
+        <v>0</v>
+      </c>
+      <c r="F346" s="47">
+        <v>1</v>
+      </c>
+      <c r="G346" s="47">
+        <v>1</v>
+      </c>
+      <c r="I346" s="46" t="s">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1051">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4427,6 +4427,14 @@
   </si>
   <si>
     <t>act_ty_by_drop_style/act_009_lihe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_007_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5052,13 +5060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
+      <selection pane="bottomRight" activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13827,7 +13835,7 @@
         <v>1029</v>
       </c>
       <c r="E346" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346" s="47">
         <v>1</v>
@@ -13836,6 +13844,29 @@
         <v>1</v>
       </c>
       <c r="I346" s="46" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" s="47" customFormat="1">
+      <c r="A347" s="15">
+        <v>346</v>
+      </c>
+      <c r="B347" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C347" s="46" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E347" s="47">
+        <v>1</v>
+      </c>
+      <c r="F347" s="47">
+        <v>1</v>
+      </c>
+      <c r="G347" s="47">
+        <v>1</v>
+      </c>
+      <c r="I347" s="46" t="s">
         <v>1039</v>
       </c>
     </row>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -3106,14 +3106,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_025_jrth</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3784,10 +3776,6 @@
   </si>
   <si>
     <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠→金牛幸运宝箱</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4435,6 +4423,18 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_007_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买+自动抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_JRTHManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4551,7 +4551,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4568,12 +4568,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4632,7 +4626,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4696,43 +4690,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4753,10 +4744,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4765,22 +4756,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5063,16 +5054,16 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D353" sqref="D353"/>
+      <selection pane="bottomRight" activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -5086,8 +5077,8 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>979</v>
+      <c r="B1" s="37" t="s">
+        <v>976</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5557,7 +5548,7 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
@@ -5758,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6338,7 +6329,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6491,8 +6482,8 @@
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="39" t="s">
-        <v>978</v>
+      <c r="B55" s="38" t="s">
+        <v>975</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6517,7 +6508,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -6596,7 +6587,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6624,8 +6615,8 @@
       <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>976</v>
+      <c r="C60" s="34" t="s">
+        <v>973</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6639,8 +6630,8 @@
       <c r="G60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="34" t="s">
-        <v>977</v>
+      <c r="I60" s="33" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6981,29 +6972,29 @@
         <v>639</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="30" customFormat="1">
+    <row r="74" spans="1:9" s="29" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="29">
-        <v>0</v>
-      </c>
-      <c r="F74" s="30">
-        <v>0</v>
-      </c>
-      <c r="G74" s="30">
-        <v>0</v>
-      </c>
-      <c r="I74" s="31" t="s">
+      <c r="E74" s="28">
+        <v>0</v>
+      </c>
+      <c r="F74" s="29">
+        <v>0</v>
+      </c>
+      <c r="G74" s="29">
+        <v>0</v>
+      </c>
+      <c r="I74" s="30" t="s">
         <v>641</v>
       </c>
     </row>
@@ -7033,30 +7024,30 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="23" customFormat="1">
+    <row r="76" spans="1:9" s="22" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="32">
-        <v>0</v>
-      </c>
-      <c r="F76" s="23">
-        <v>1</v>
-      </c>
-      <c r="G76" s="23">
-        <v>1</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>958</v>
+      <c r="E76" s="31">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1</v>
+      </c>
+      <c r="G76" s="22">
+        <v>1</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8173,7 +8164,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="42" t="s">
+      <c r="I119" s="41" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9006,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -9797,7 +9788,7 @@
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="39" t="s">
+      <c r="B183" s="38" t="s">
         <v>520</v>
       </c>
       <c r="C183" t="s">
@@ -9820,7 +9811,7 @@
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="39" t="s">
+      <c r="B184" s="38" t="s">
         <v>522</v>
       </c>
       <c r="C184" t="s">
@@ -9843,7 +9834,7 @@
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="38" t="s">
         <v>524</v>
       </c>
       <c r="C185" t="s">
@@ -9866,7 +9857,7 @@
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="39" t="s">
+      <c r="B186" s="38" t="s">
         <v>526</v>
       </c>
       <c r="C186" t="s">
@@ -9889,7 +9880,7 @@
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="38" t="s">
         <v>528</v>
       </c>
       <c r="C187" t="s">
@@ -9912,7 +9903,7 @@
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="39" t="s">
+      <c r="B188" s="38" t="s">
         <v>530</v>
       </c>
       <c r="C188" t="s">
@@ -9935,7 +9926,7 @@
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="38" t="s">
         <v>532</v>
       </c>
       <c r="C189" t="s">
@@ -9958,7 +9949,7 @@
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="38" t="s">
         <v>534</v>
       </c>
       <c r="C190" t="s">
@@ -9981,7 +9972,7 @@
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="39" t="s">
+      <c r="B191" s="38" t="s">
         <v>536</v>
       </c>
       <c r="C191" t="s">
@@ -10004,7 +9995,7 @@
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="B192" s="38" t="s">
         <v>538</v>
       </c>
       <c r="C192" t="s">
@@ -10027,7 +10018,7 @@
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="39" t="s">
+      <c r="B193" s="38" t="s">
         <v>540</v>
       </c>
       <c r="C193" t="s">
@@ -10050,7 +10041,7 @@
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="B194" s="38" t="s">
         <v>542</v>
       </c>
       <c r="C194" t="s">
@@ -10073,7 +10064,7 @@
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="39" t="s">
+      <c r="B195" s="38" t="s">
         <v>544</v>
       </c>
       <c r="C195" t="s">
@@ -10096,7 +10087,7 @@
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="39" t="s">
+      <c r="B196" s="38" t="s">
         <v>546</v>
       </c>
       <c r="C196" t="s">
@@ -10119,7 +10110,7 @@
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="38" t="s">
         <v>548</v>
       </c>
       <c r="C197" t="s">
@@ -10142,7 +10133,7 @@
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="38" t="s">
         <v>550</v>
       </c>
       <c r="C198" t="s">
@@ -10165,7 +10156,7 @@
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="39" t="s">
+      <c r="B199" s="38" t="s">
         <v>552</v>
       </c>
       <c r="C199" t="s">
@@ -10188,7 +10179,7 @@
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="39" t="s">
+      <c r="B200" s="38" t="s">
         <v>554</v>
       </c>
       <c r="C200" t="s">
@@ -10211,7 +10202,7 @@
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="39" t="s">
+      <c r="B201" s="38" t="s">
         <v>556</v>
       </c>
       <c r="C201" t="s">
@@ -10234,7 +10225,7 @@
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="39" t="s">
+      <c r="B202" s="38" t="s">
         <v>558</v>
       </c>
       <c r="C202" t="s">
@@ -10257,7 +10248,7 @@
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="39" t="s">
+      <c r="B203" s="38" t="s">
         <v>560</v>
       </c>
       <c r="C203" t="s">
@@ -10280,7 +10271,7 @@
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="39" t="s">
+      <c r="B204" s="38" t="s">
         <v>604</v>
       </c>
       <c r="C204" t="s">
@@ -10306,7 +10297,7 @@
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="39" t="s">
+      <c r="B205" s="38" t="s">
         <v>606</v>
       </c>
       <c r="C205" t="s">
@@ -10332,7 +10323,7 @@
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="38" t="s">
         <v>608</v>
       </c>
       <c r="C206" t="s">
@@ -10358,7 +10349,7 @@
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="39" t="s">
+      <c r="B207" s="38" t="s">
         <v>565</v>
       </c>
       <c r="C207" t="s">
@@ -10381,7 +10372,7 @@
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="39" t="s">
+      <c r="B208" s="38" t="s">
         <v>567</v>
       </c>
       <c r="C208" t="s">
@@ -10404,7 +10395,7 @@
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="39" t="s">
+      <c r="B209" s="38" t="s">
         <v>569</v>
       </c>
       <c r="C209" t="s">
@@ -10427,7 +10418,7 @@
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="39" t="s">
+      <c r="B210" s="38" t="s">
         <v>571</v>
       </c>
       <c r="C210" t="s">
@@ -10450,7 +10441,7 @@
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="38" t="s">
         <v>573</v>
       </c>
       <c r="C211" t="s">
@@ -10473,7 +10464,7 @@
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="39" t="s">
+      <c r="B212" s="38" t="s">
         <v>575</v>
       </c>
       <c r="C212" t="s">
@@ -10496,7 +10487,7 @@
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="39" t="s">
+      <c r="B213" s="38" t="s">
         <v>577</v>
       </c>
       <c r="C213" t="s">
@@ -10519,7 +10510,7 @@
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="39" t="s">
+      <c r="B214" s="38" t="s">
         <v>579</v>
       </c>
       <c r="C214" t="s">
@@ -10542,7 +10533,7 @@
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="38" t="s">
         <v>581</v>
       </c>
       <c r="C215" t="s">
@@ -10565,7 +10556,7 @@
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="39" t="s">
+      <c r="B216" s="38" t="s">
         <v>583</v>
       </c>
       <c r="C216" t="s">
@@ -10588,7 +10579,7 @@
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="39" t="s">
+      <c r="B217" s="38" t="s">
         <v>585</v>
       </c>
       <c r="C217" t="s">
@@ -10611,7 +10602,7 @@
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="39" t="s">
+      <c r="B218" s="38" t="s">
         <v>587</v>
       </c>
       <c r="C218" t="s">
@@ -10634,7 +10625,7 @@
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="39" t="s">
+      <c r="B219" s="38" t="s">
         <v>589</v>
       </c>
       <c r="C219" t="s">
@@ -10657,7 +10648,7 @@
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="39" t="s">
+      <c r="B220" s="38" t="s">
         <v>591</v>
       </c>
       <c r="C220" t="s">
@@ -10680,7 +10671,7 @@
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="39" t="s">
+      <c r="B221" s="38" t="s">
         <v>593</v>
       </c>
       <c r="C221" t="s">
@@ -10703,7 +10694,7 @@
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="39" t="s">
+      <c r="B222" s="38" t="s">
         <v>595</v>
       </c>
       <c r="C222" t="s">
@@ -10726,7 +10717,7 @@
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="39" t="s">
+      <c r="B223" s="38" t="s">
         <v>597</v>
       </c>
       <c r="C223" t="s">
@@ -10749,7 +10740,7 @@
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="39" t="s">
+      <c r="B224" s="38" t="s">
         <v>599</v>
       </c>
       <c r="C224" t="s">
@@ -10772,7 +10763,7 @@
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="38" t="s">
         <v>647</v>
       </c>
       <c r="C225" t="s">
@@ -10795,7 +10786,7 @@
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="39" t="s">
+      <c r="B226" s="38" t="s">
         <v>613</v>
       </c>
       <c r="C226" s="8" t="s">
@@ -10818,7 +10809,7 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="39" t="s">
+      <c r="B227" s="38" t="s">
         <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
@@ -10841,7 +10832,7 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="39" t="s">
+      <c r="B228" s="38" t="s">
         <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
@@ -10864,7 +10855,7 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="39" t="s">
+      <c r="B229" s="38" t="s">
         <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -10887,7 +10878,7 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="39" t="s">
+      <c r="B230" s="38" t="s">
         <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
@@ -10910,7 +10901,7 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="39" t="s">
+      <c r="B231" s="38" t="s">
         <v>624</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -10933,7 +10924,7 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="39" t="s">
+      <c r="B232" s="38" t="s">
         <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
@@ -10956,7 +10947,7 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="39" t="s">
+      <c r="B233" s="38" t="s">
         <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -10979,7 +10970,7 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="39" t="s">
+      <c r="B234" s="38" t="s">
         <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
@@ -11002,11 +10993,11 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="39" t="s">
+      <c r="B235" s="38" t="s">
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>660</v>
@@ -11028,7 +11019,7 @@
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="39" t="s">
+      <c r="B236" s="38" t="s">
         <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
@@ -11047,14 +11038,14 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="39" t="s">
+      <c r="B237" s="38" t="s">
         <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
@@ -11080,7 +11071,7 @@
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="39" t="s">
+      <c r="B238" s="38" t="s">
         <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
@@ -11106,7 +11097,7 @@
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="39" t="s">
+      <c r="B239" s="38" t="s">
         <v>675</v>
       </c>
       <c r="C239" s="8" t="s">
@@ -11132,7 +11123,7 @@
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="39" t="s">
+      <c r="B240" s="38" t="s">
         <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
@@ -11158,7 +11149,7 @@
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="39" t="s">
+      <c r="B241" s="38" t="s">
         <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
@@ -11184,7 +11175,7 @@
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="39" t="s">
+      <c r="B242" s="38" t="s">
         <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
@@ -11210,7 +11201,7 @@
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="39" t="s">
+      <c r="B243" s="38" t="s">
         <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -11236,7 +11227,7 @@
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="39" t="s">
+      <c r="B244" s="38" t="s">
         <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
@@ -11262,7 +11253,7 @@
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="39" t="s">
+      <c r="B245" s="38" t="s">
         <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
@@ -11288,7 +11279,7 @@
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="39" t="s">
+      <c r="B246" s="38" t="s">
         <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
@@ -11314,7 +11305,7 @@
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="39" t="s">
+      <c r="B247" s="38" t="s">
         <v>710</v>
       </c>
       <c r="C247" s="8" t="s">
@@ -11340,7 +11331,7 @@
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="39" t="s">
+      <c r="B248" s="38" t="s">
         <v>714</v>
       </c>
       <c r="C248" s="8" t="s">
@@ -11366,7 +11357,7 @@
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="39" t="s">
+      <c r="B249" s="38" t="s">
         <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
@@ -11392,7 +11383,7 @@
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="39" t="s">
+      <c r="B250" s="38" t="s">
         <v>722</v>
       </c>
       <c r="C250" s="8" t="s">
@@ -11418,7 +11409,7 @@
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="39" t="s">
+      <c r="B251" s="38" t="s">
         <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
@@ -11444,7 +11435,7 @@
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="39" t="s">
+      <c r="B252" s="38" t="s">
         <v>730</v>
       </c>
       <c r="C252" t="s">
@@ -11470,26 +11461,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="40" t="s">
-        <v>950</v>
-      </c>
-      <c r="C253" s="23" t="s">
+      <c r="B253" s="39" t="s">
+        <v>947</v>
+      </c>
+      <c r="C253" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="D253" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="E253" s="23">
-        <v>1</v>
-      </c>
-      <c r="F253" s="23">
-        <v>1</v>
-      </c>
-      <c r="G253" s="23">
-        <v>1</v>
-      </c>
-      <c r="H253" s="23"/>
-      <c r="I253" s="22" t="s">
+      <c r="D253" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="E253" s="22">
+        <v>1</v>
+      </c>
+      <c r="F253" s="22">
+        <v>1</v>
+      </c>
+      <c r="G253" s="22">
+        <v>1</v>
+      </c>
+      <c r="H253" s="22"/>
+      <c r="I253" s="21" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11497,7 +11488,7 @@
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="39" t="s">
+      <c r="B254" s="38" t="s">
         <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
@@ -11523,7 +11514,7 @@
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="39" t="s">
+      <c r="B255" s="38" t="s">
         <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
@@ -11545,45 +11536,44 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="21" customFormat="1">
+    <row r="256" spans="1:9" s="16" customFormat="1">
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="C256" s="46" t="s">
-        <v>913</v>
-      </c>
-      <c r="D256" s="46" t="s">
-        <v>744</v>
-      </c>
-      <c r="E256" s="47">
-        <v>0</v>
-      </c>
-      <c r="F256" s="47">
-        <v>0</v>
-      </c>
-      <c r="G256" s="47">
-        <v>0</v>
-      </c>
-      <c r="H256" s="47"/>
-      <c r="I256" s="46" t="s">
-        <v>1030</v>
+      <c r="B256" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E256" s="16">
+        <v>0</v>
+      </c>
+      <c r="F256" s="16">
+        <v>0</v>
+      </c>
+      <c r="G256" s="16">
+        <v>0</v>
+      </c>
+      <c r="I256" s="14" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="24" t="s">
-        <v>748</v>
+      <c r="B257" s="23" t="s">
+        <v>746</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E257" s="16">
         <v>0</v>
@@ -11595,22 +11585,22 @@
         <v>1</v>
       </c>
       <c r="I257" s="14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="16" customFormat="1">
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="24" t="s">
+      <c r="B258" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="D258" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="C258" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="D258" s="14" t="s">
-        <v>751</v>
-      </c>
       <c r="E258" s="16">
         <v>0</v>
       </c>
@@ -11621,99 +11611,99 @@
         <v>1</v>
       </c>
       <c r="I258" s="14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="16" customFormat="1">
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="24" t="s">
+      <c r="B259" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="D259" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="E259" s="16">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16">
+        <v>1</v>
+      </c>
+      <c r="G259" s="16">
+        <v>1</v>
+      </c>
+      <c r="I259" s="14" t="s">
         <v>753</v>
-      </c>
-      <c r="D259" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="E259" s="16">
-        <v>1</v>
-      </c>
-      <c r="F259" s="16">
-        <v>1</v>
-      </c>
-      <c r="G259" s="16">
-        <v>1</v>
-      </c>
-      <c r="I259" s="14" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="16" customFormat="1">
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="24" t="s">
+      <c r="B260" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="D260" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="E260" s="16">
+        <v>0</v>
+      </c>
+      <c r="F260" s="16">
+        <v>1</v>
+      </c>
+      <c r="G260" s="16">
+        <v>1</v>
+      </c>
+      <c r="I260" s="14" t="s">
         <v>757</v>
-      </c>
-      <c r="D260" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="E260" s="16">
-        <v>0</v>
-      </c>
-      <c r="F260" s="16">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16">
-        <v>1</v>
-      </c>
-      <c r="I260" s="14" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="39" t="s">
+      <c r="B261" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D261" t="s">
+        <v>759</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="11" t="s">
         <v>760</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="D261" t="s">
-        <v>761</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="24" t="s">
+      <c r="B262" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="D262" s="14" t="s">
         <v>764</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="D262" s="14" t="s">
-        <v>766</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11732,40 +11722,40 @@
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="24" t="s">
+      <c r="B263" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="D263" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="E263" s="16">
+        <v>0</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="I263" s="14" t="s">
         <v>768</v>
-      </c>
-      <c r="D263" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="E263" s="16">
-        <v>0</v>
-      </c>
-      <c r="F263" s="16">
-        <v>0</v>
-      </c>
-      <c r="G263" s="16">
-        <v>0</v>
-      </c>
-      <c r="I263" s="14" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="16" customFormat="1">
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="24" t="s">
+      <c r="B264" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="D264" s="14" t="s">
         <v>771</v>
-      </c>
-      <c r="C264" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>773</v>
       </c>
       <c r="E264" s="16">
         <v>0</v>
@@ -11784,66 +11774,66 @@
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="24" t="s">
+      <c r="B265" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="E265" s="16">
+        <v>0</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0</v>
+      </c>
+      <c r="I265" s="16" t="s">
         <v>775</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="E265" s="16">
-        <v>0</v>
-      </c>
-      <c r="F265" s="16">
-        <v>0</v>
-      </c>
-      <c r="G265" s="16">
-        <v>0</v>
-      </c>
-      <c r="I265" s="16" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="16" customFormat="1">
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="24" t="s">
+      <c r="B266" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="C266" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C266" s="14" t="s">
-        <v>780</v>
-      </c>
       <c r="D266" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18" t="s">
         <v>779</v>
-      </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="F266" s="16">
-        <v>0</v>
-      </c>
-      <c r="G266" s="16">
-        <v>0</v>
-      </c>
-      <c r="I266" s="18" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="16" customFormat="1">
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="24" t="s">
+      <c r="B267" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C267" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C267" s="14" t="s">
-        <v>784</v>
-      </c>
       <c r="D267" s="17" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E267" s="16">
         <v>0</v>
@@ -11862,14 +11852,14 @@
       <c r="A268" s="15">
         <v>267</v>
       </c>
-      <c r="B268" s="24" t="s">
-        <v>788</v>
+      <c r="B268" s="23" t="s">
+        <v>786</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E268" s="16">
         <v>1</v>
@@ -11888,14 +11878,14 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="24" t="s">
-        <v>789</v>
+      <c r="B269" s="23" t="s">
+        <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -11915,14 +11905,14 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="24" t="s">
+      <c r="B270" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D270" s="17" t="s">
         <v>791</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>793</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11942,14 +11932,14 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="24" t="s">
+      <c r="B271" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C271" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="C271" s="14" t="s">
-        <v>797</v>
-      </c>
       <c r="D271" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11962,21 +11952,21 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="24" t="s">
+      <c r="B272" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="D272" s="17" t="s">
         <v>799</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>801</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11989,21 +11979,21 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="C273" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="C273" s="14" t="s">
-        <v>805</v>
-      </c>
       <c r="D273" s="17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -12016,21 +12006,21 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="24" t="s">
-        <v>837</v>
+      <c r="B274" s="23" t="s">
+        <v>835</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -12043,70 +12033,70 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="46" customFormat="1">
+      <c r="A275" s="43">
+        <v>274</v>
+      </c>
+      <c r="B275" s="47" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" s="47" customFormat="1">
-      <c r="A275" s="44">
-        <v>274</v>
-      </c>
-      <c r="B275" s="48" t="s">
+      <c r="C275" s="45" t="s">
+        <v>807</v>
+      </c>
+      <c r="D275" s="44" t="s">
+        <v>809</v>
+      </c>
+      <c r="E275" s="46">
+        <v>1</v>
+      </c>
+      <c r="F275" s="46">
+        <v>1</v>
+      </c>
+      <c r="G275" s="46">
+        <v>1</v>
+      </c>
+      <c r="I275" s="45" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="46" customFormat="1">
+      <c r="A276" s="43">
+        <v>275</v>
+      </c>
+      <c r="B276" s="47" t="s">
         <v>810</v>
       </c>
-      <c r="C275" s="46" t="s">
-        <v>809</v>
-      </c>
-      <c r="D275" s="45" t="s">
+      <c r="C276" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="E275" s="47">
-        <v>1</v>
-      </c>
-      <c r="F275" s="47">
-        <v>1</v>
-      </c>
-      <c r="G275" s="47">
-        <v>1</v>
-      </c>
-      <c r="I275" s="46" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="47" customFormat="1">
-      <c r="A276" s="44">
-        <v>275</v>
-      </c>
-      <c r="B276" s="48" t="s">
-        <v>812</v>
-      </c>
-      <c r="C276" s="46" t="s">
-        <v>813</v>
-      </c>
-      <c r="E276" s="47">
-        <v>1</v>
-      </c>
-      <c r="F276" s="47">
-        <v>1</v>
-      </c>
-      <c r="G276" s="47">
-        <v>1</v>
-      </c>
-      <c r="I276" s="46" t="s">
-        <v>1039</v>
+      <c r="E276" s="46">
+        <v>1</v>
+      </c>
+      <c r="F276" s="46">
+        <v>1</v>
+      </c>
+      <c r="G276" s="46">
+        <v>1</v>
+      </c>
+      <c r="I276" s="45" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="24" t="s">
-        <v>814</v>
+      <c r="B277" s="23" t="s">
+        <v>812</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="D277" s="24" t="s">
-        <v>815</v>
+        <v>915</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>813</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12119,21 +12109,21 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="24" t="s">
-        <v>824</v>
+      <c r="B278" s="23" t="s">
+        <v>822</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12145,44 +12135,44 @@
         <v>1</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="24" t="s">
-        <v>819</v>
+      <c r="B279" s="23" t="s">
+        <v>817</v>
       </c>
       <c r="C279" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>818</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="24" t="s">
-        <v>823</v>
+      <c r="B280" s="23" t="s">
+        <v>821</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12194,21 +12184,21 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="24" t="s">
+      <c r="B281" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="C281" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>827</v>
-      </c>
       <c r="D281" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12220,21 +12210,21 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="24" t="s">
-        <v>835</v>
+      <c r="B282" s="23" t="s">
+        <v>833</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12246,58 +12236,58 @@
         <v>0</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="27" customFormat="1" ht="17.25" customHeight="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="26" t="s">
+      <c r="B283" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C283" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="C283" s="25" t="s">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="26">
+        <v>1</v>
+      </c>
+      <c r="G283" s="26">
+        <v>1</v>
+      </c>
+      <c r="I283" s="27" t="s">
         <v>832</v>
       </c>
-      <c r="D283" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E283" s="27">
-        <v>1</v>
-      </c>
-      <c r="F283" s="27">
-        <v>1</v>
-      </c>
-      <c r="G283" s="27">
-        <v>1</v>
-      </c>
-      <c r="I283" s="28" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="27" customFormat="1">
+    </row>
+    <row r="284" spans="1:9" s="26" customFormat="1">
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="26" t="s">
-        <v>839</v>
-      </c>
-      <c r="C284" s="25" t="s">
-        <v>840</v>
-      </c>
-      <c r="D284" s="26" t="s">
+      <c r="B284" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="C284" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="E284" s="27">
-        <v>1</v>
-      </c>
-      <c r="F284" s="27">
-        <v>1</v>
-      </c>
-      <c r="G284" s="27">
-        <v>1</v>
-      </c>
-      <c r="I284" s="28" t="s">
+      <c r="D284" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="E284" s="26">
+        <v>1</v>
+      </c>
+      <c r="F284" s="26">
+        <v>1</v>
+      </c>
+      <c r="G284" s="26">
+        <v>1</v>
+      </c>
+      <c r="I284" s="27" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12305,93 +12295,93 @@
       <c r="A285" s="15">
         <v>284</v>
       </c>
-      <c r="B285" s="24" t="s">
+      <c r="B285" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="D285" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="D285" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="27" customFormat="1">
+    </row>
+    <row r="286" spans="1:9" s="26" customFormat="1">
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="41" t="s">
-        <v>847</v>
-      </c>
-      <c r="C286" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="D286" s="26" t="s">
+      <c r="B286" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="C286" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="E286" s="27">
-        <v>1</v>
-      </c>
-      <c r="F286" s="27">
-        <v>1</v>
-      </c>
-      <c r="G286" s="27">
-        <v>1</v>
-      </c>
-      <c r="I286" s="28" t="s">
+      <c r="D286" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="E286" s="26">
+        <v>1</v>
+      </c>
+      <c r="F286" s="26">
+        <v>1</v>
+      </c>
+      <c r="G286" s="26">
+        <v>1</v>
+      </c>
+      <c r="I286" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="27" customFormat="1">
+    <row r="287" spans="1:9" s="26" customFormat="1">
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="41" t="s">
+      <c r="B287" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="C287" s="25" t="s">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>850</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>851</v>
-      </c>
-      <c r="E287" s="27">
-        <v>1</v>
-      </c>
-      <c r="F287" s="27">
-        <v>1</v>
-      </c>
-      <c r="G287" s="27">
-        <v>1</v>
-      </c>
-      <c r="I287" s="28" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="16" customFormat="1">
       <c r="A288" s="15">
         <v>287</v>
       </c>
-      <c r="B288" s="24" t="s">
+      <c r="B288" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="C288" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="D288" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="C288" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="D288" s="14" t="s">
-        <v>855</v>
-      </c>
       <c r="E288" s="16">
         <v>0</v>
       </c>
@@ -12402,188 +12392,188 @@
         <v>0</v>
       </c>
       <c r="I288" s="14" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="27" customFormat="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="26" customFormat="1">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="41" t="s">
+      <c r="B289" s="40" t="s">
+        <v>854</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>856</v>
       </c>
-      <c r="C289" s="25" t="s">
+      <c r="E289" s="26">
+        <v>1</v>
+      </c>
+      <c r="F289" s="26">
+        <v>1</v>
+      </c>
+      <c r="G289" s="26">
+        <v>1</v>
+      </c>
+      <c r="I289" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="D289" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="E289" s="27">
-        <v>1</v>
-      </c>
-      <c r="F289" s="27">
-        <v>1</v>
-      </c>
-      <c r="G289" s="27">
-        <v>1</v>
-      </c>
-      <c r="I289" s="28" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="27" customFormat="1">
+    </row>
+    <row r="290" spans="1:9" s="26" customFormat="1">
       <c r="A290" s="15">
         <v>289</v>
       </c>
-      <c r="B290" s="26" t="s">
+      <c r="B290" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="25" t="s">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="26">
+        <v>1</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1</v>
+      </c>
+      <c r="I290" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="D290" s="26" t="s">
-        <v>862</v>
-      </c>
-      <c r="E290" s="27">
-        <v>1</v>
-      </c>
-      <c r="F290" s="27">
-        <v>1</v>
-      </c>
-      <c r="G290" s="27">
-        <v>1</v>
-      </c>
-      <c r="I290" s="28" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="27" customFormat="1">
+    </row>
+    <row r="291" spans="1:9" s="26" customFormat="1">
       <c r="A291" s="15">
         <v>290</v>
       </c>
-      <c r="B291" s="26" t="s">
+      <c r="B291" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>864</v>
       </c>
-      <c r="C291" s="25" t="s">
-        <v>865</v>
-      </c>
-      <c r="D291" s="26" t="s">
-        <v>866</v>
-      </c>
-      <c r="E291" s="27">
-        <v>1</v>
-      </c>
-      <c r="F291" s="27">
-        <v>1</v>
-      </c>
-      <c r="G291" s="27">
-        <v>1</v>
-      </c>
-      <c r="I291" s="28" t="s">
+      <c r="E291" s="26">
+        <v>1</v>
+      </c>
+      <c r="F291" s="26">
+        <v>1</v>
+      </c>
+      <c r="G291" s="26">
+        <v>1</v>
+      </c>
+      <c r="I291" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="27" customFormat="1">
+    <row r="292" spans="1:9" s="26" customFormat="1">
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="26" t="s">
+      <c r="B292" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>867</v>
       </c>
-      <c r="C292" s="25" t="s">
-        <v>872</v>
-      </c>
-      <c r="D292" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="E292" s="27">
-        <v>1</v>
-      </c>
-      <c r="F292" s="27">
-        <v>1</v>
-      </c>
-      <c r="G292" s="27">
-        <v>1</v>
-      </c>
-      <c r="I292" s="28" t="s">
+      <c r="E292" s="26">
+        <v>1</v>
+      </c>
+      <c r="F292" s="26">
+        <v>1</v>
+      </c>
+      <c r="G292" s="26">
+        <v>1</v>
+      </c>
+      <c r="I292" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="27" customFormat="1">
+    <row r="293" spans="1:9" s="26" customFormat="1">
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="26" t="s">
+      <c r="B293" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="C293" s="25" t="s">
-        <v>873</v>
-      </c>
-      <c r="D293" s="26" t="s">
-        <v>870</v>
-      </c>
-      <c r="E293" s="27">
-        <v>1</v>
-      </c>
-      <c r="F293" s="27">
-        <v>1</v>
-      </c>
-      <c r="G293" s="27">
-        <v>1</v>
-      </c>
-      <c r="I293" s="28" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="27" customFormat="1">
+      <c r="E293" s="26">
+        <v>1</v>
+      </c>
+      <c r="F293" s="26">
+        <v>1</v>
+      </c>
+      <c r="G293" s="26">
+        <v>1</v>
+      </c>
+      <c r="I293" s="27" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="26" customFormat="1">
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="26" t="s">
+      <c r="B294" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="D294" s="25" t="s">
         <v>874</v>
       </c>
-      <c r="C294" s="25" t="s">
-        <v>875</v>
-      </c>
-      <c r="D294" s="26" t="s">
-        <v>876</v>
-      </c>
-      <c r="E294" s="27">
-        <v>1</v>
-      </c>
-      <c r="F294" s="27">
-        <v>1</v>
-      </c>
-      <c r="G294" s="27">
-        <v>1</v>
-      </c>
-      <c r="I294" s="28" t="s">
+      <c r="E294" s="26">
+        <v>1</v>
+      </c>
+      <c r="F294" s="26">
+        <v>1</v>
+      </c>
+      <c r="G294" s="26">
+        <v>1</v>
+      </c>
+      <c r="I294" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="27" customFormat="1">
+    <row r="295" spans="1:9" s="26" customFormat="1">
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="26" t="s">
+      <c r="B295" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="C295" s="25" t="s">
-        <v>878</v>
-      </c>
-      <c r="D295" s="26" t="s">
-        <v>879</v>
-      </c>
-      <c r="E295" s="27">
-        <v>1</v>
-      </c>
-      <c r="F295" s="27">
-        <v>1</v>
-      </c>
-      <c r="G295" s="27">
-        <v>1</v>
-      </c>
-      <c r="I295" s="28" t="s">
+      <c r="E295" s="26">
+        <v>1</v>
+      </c>
+      <c r="F295" s="26">
+        <v>1</v>
+      </c>
+      <c r="G295" s="26">
+        <v>1</v>
+      </c>
+      <c r="I295" s="27" t="s">
         <v>638</v>
       </c>
     </row>
@@ -12592,14 +12582,14 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C296" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="D296" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="D296" s="19" t="s">
-        <v>883</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -12610,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12618,14 +12608,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C297" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="D297" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D297" s="19" t="s">
-        <v>884</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12636,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12644,14 +12634,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="D298" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="C298" s="14" t="s">
-        <v>887</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>888</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12662,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12670,25 +12660,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D299" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>891</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12696,25 +12686,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D300" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>896</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12722,13 +12712,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E301" s="16">
         <v>0</v>
@@ -12740,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12748,14 +12738,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C302" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="D302" s="17" t="s">
-        <v>904</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12766,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12774,25 +12764,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>905</v>
-      </c>
-      <c r="C303" s="14" t="s">
-        <v>908</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12800,13 +12790,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12818,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12826,13 +12816,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E305" s="16">
         <v>1</v>
@@ -12844,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12852,13 +12842,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12877,26 +12867,26 @@
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="24" t="s">
-        <v>911</v>
+      <c r="B307" s="23" t="s">
+        <v>909</v>
       </c>
       <c r="C307" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12904,13 +12894,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12922,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12930,25 +12920,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D309" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>919</v>
-      </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12956,13 +12946,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E310" s="16">
         <v>1</v>
@@ -12974,33 +12964,33 @@
         <v>1</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="47" customFormat="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="46" customFormat="1">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="45" t="s">
-        <v>968</v>
-      </c>
-      <c r="C311" s="46" t="s">
-        <v>926</v>
-      </c>
-      <c r="D311" s="45" t="s">
-        <v>927</v>
-      </c>
-      <c r="E311" s="47">
-        <v>1</v>
-      </c>
-      <c r="F311" s="47">
-        <v>1</v>
-      </c>
-      <c r="G311" s="47">
-        <v>1</v>
-      </c>
-      <c r="I311" s="46" t="s">
-        <v>931</v>
+      <c r="B311" s="44" t="s">
+        <v>965</v>
+      </c>
+      <c r="C311" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="D311" s="44" t="s">
+        <v>924</v>
+      </c>
+      <c r="E311" s="46">
+        <v>1</v>
+      </c>
+      <c r="F311" s="46">
+        <v>1</v>
+      </c>
+      <c r="G311" s="46">
+        <v>1</v>
+      </c>
+      <c r="I311" s="45" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -13008,13 +12998,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -13030,15 +13020,15 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="37" t="s">
-        <v>936</v>
+      <c r="B313" s="36" t="s">
+        <v>933</v>
       </c>
       <c r="C313" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="D313" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="D313" s="17" t="s">
-        <v>941</v>
-      </c>
       <c r="E313" s="16">
         <v>0</v>
       </c>
@@ -13049,24 +13039,24 @@
         <v>1</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="37" t="s">
-        <v>937</v>
+      <c r="B314" s="36" t="s">
+        <v>934</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="D314" s="36" t="s">
-        <v>944</v>
+        <v>936</v>
+      </c>
+      <c r="D314" s="35" t="s">
+        <v>941</v>
       </c>
       <c r="E314" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" s="16">
         <v>1</v>
@@ -13083,13 +13073,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13101,21 +13091,21 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="37" t="s">
-        <v>948</v>
+      <c r="B316" s="36" t="s">
+        <v>945</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>946</v>
-      </c>
-      <c r="D316" s="36" t="s">
-        <v>945</v>
+        <v>943</v>
+      </c>
+      <c r="D316" s="35" t="s">
+        <v>942</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13135,10 +13125,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E317" s="16">
         <v>0</v>
@@ -13150,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="16" customFormat="1">
@@ -13158,10 +13148,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E318" s="16">
         <v>0</v>
@@ -13173,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="14" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="16" customFormat="1">
@@ -13181,10 +13171,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E319" s="16">
         <v>0</v>
@@ -13196,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="16" customFormat="1">
@@ -13204,10 +13194,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E320" s="16">
         <v>0</v>
@@ -13219,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="16" customFormat="1">
@@ -13227,10 +13217,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E321" s="16">
         <v>0</v>
@@ -13242,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="16" customFormat="1">
@@ -13250,10 +13240,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E322" s="16">
         <v>0</v>
@@ -13265,21 +13255,21 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="43" t="s">
-        <v>1003</v>
+      <c r="B323" s="42" t="s">
+        <v>1000</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E323" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" s="16">
         <v>1</v>
@@ -13288,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="18" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13296,25 +13286,25 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>1</v>
+      </c>
+      <c r="G324" s="16">
+        <v>1</v>
+      </c>
+      <c r="I324" s="14" t="s">
         <v>959</v>
-      </c>
-      <c r="C324" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="E324" s="16">
-        <v>0</v>
-      </c>
-      <c r="F324" s="16">
-        <v>1</v>
-      </c>
-      <c r="G324" s="16">
-        <v>1</v>
-      </c>
-      <c r="I324" s="14" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13322,13 +13312,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -13340,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13348,10 +13338,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
@@ -13363,15 +13353,15 @@
         <v>1</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="24" t="s">
-        <v>969</v>
+      <c r="B327" s="23" t="s">
+        <v>966</v>
       </c>
       <c r="E327" s="16">
         <v>1</v>
@@ -13391,13 +13381,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
@@ -13409,10 +13399,10 @@
         <v>1</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13420,22 +13410,22 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C329" s="18" t="s">
         <v>982</v>
       </c>
-      <c r="C329" s="18" t="s">
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>985</v>
-      </c>
-      <c r="E329" s="16">
-        <v>0</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13443,11 +13433,11 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="C330" s="18" t="s">
         <v>983</v>
       </c>
-      <c r="C330" s="18" t="s">
-        <v>986</v>
-      </c>
       <c r="E330" s="16">
         <v>0</v>
       </c>
@@ -13458,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="16" customFormat="1">
@@ -13466,11 +13456,11 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="C331" s="18" t="s">
         <v>984</v>
       </c>
-      <c r="C331" s="18" t="s">
-        <v>987</v>
-      </c>
       <c r="E331" s="16">
         <v>0</v>
       </c>
@@ -13481,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="16" customFormat="1">
@@ -13489,13 +13479,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E332" s="16">
         <v>0</v>
@@ -13507,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="16" customFormat="1">
@@ -13515,25 +13505,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C333" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1006</v>
-      </c>
-      <c r="D333" s="17" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="16" customFormat="1">
@@ -13541,10 +13531,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -13556,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="16" customFormat="1">
@@ -13564,10 +13554,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -13579,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="16" customFormat="1">
@@ -13587,10 +13577,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13602,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="16" customFormat="1">
@@ -13610,10 +13600,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E337" s="16">
         <v>0</v>
@@ -13625,21 +13615,21 @@
         <v>1</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="16" customFormat="1">
       <c r="A338" s="15">
         <v>337</v>
       </c>
-      <c r="B338" s="24" t="s">
-        <v>1020</v>
+      <c r="B338" s="23" t="s">
+        <v>1017</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E338" s="16">
         <v>1</v>
@@ -13651,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="I338" s="14" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="16" customFormat="1">
@@ -13659,22 +13649,22 @@
         <v>338</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C339" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E339" s="16">
+        <v>0</v>
+      </c>
+      <c r="F339" s="16">
+        <v>1</v>
+      </c>
+      <c r="G339" s="16">
+        <v>1</v>
+      </c>
+      <c r="I339" s="14" t="s">
         <v>1027</v>
-      </c>
-      <c r="E339" s="16">
-        <v>0</v>
-      </c>
-      <c r="F339" s="16">
-        <v>1</v>
-      </c>
-      <c r="G339" s="16">
-        <v>1</v>
-      </c>
-      <c r="I339" s="14" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="16" customFormat="1">
@@ -13682,10 +13672,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E340" s="16">
         <v>0</v>
@@ -13697,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="16" customFormat="1">
@@ -13705,10 +13695,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C341" s="18" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E341" s="16">
         <v>0</v>
@@ -13720,154 +13710,154 @@
         <v>1</v>
       </c>
       <c r="I341" s="14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="16" customFormat="1">
       <c r="A342" s="15">
         <v>341</v>
       </c>
-      <c r="B342" s="24" t="s">
+      <c r="B342" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C342" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E342" s="16">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16">
+        <v>1</v>
+      </c>
+      <c r="G342" s="16">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="C342" s="18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D342" s="16" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E342" s="16">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16">
-        <v>1</v>
-      </c>
-      <c r="G342" s="16">
-        <v>1</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" s="47" customFormat="1">
+    </row>
+    <row r="343" spans="1:9" s="46" customFormat="1">
       <c r="A343" s="15">
         <v>342</v>
       </c>
-      <c r="B343" s="45" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C343" s="46" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E343" s="47">
-        <v>1</v>
-      </c>
-      <c r="F343" s="47">
-        <v>1</v>
-      </c>
-      <c r="G343" s="47">
-        <v>1</v>
-      </c>
-      <c r="I343" s="46" t="s">
-        <v>1039</v>
+      <c r="B343" s="44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C343" s="45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E343" s="46">
+        <v>1</v>
+      </c>
+      <c r="F343" s="46">
+        <v>1</v>
+      </c>
+      <c r="G343" s="46">
+        <v>1</v>
+      </c>
+      <c r="I343" s="45" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="15">
         <v>343</v>
       </c>
-      <c r="B344" s="39" t="s">
+      <c r="B344" s="38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C344" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>1</v>
+      </c>
+      <c r="G344" s="16">
+        <v>1</v>
+      </c>
+      <c r="I344" s="14" t="s">
         <v>1040</v>
-      </c>
-      <c r="C344" s="18" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E344" s="16">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16">
-        <v>1</v>
-      </c>
-      <c r="G344" s="16">
-        <v>1</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="15">
         <v>344</v>
       </c>
-      <c r="B345" s="39" t="s">
+      <c r="B345" s="38" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>1</v>
+      </c>
+      <c r="G345" s="16">
+        <v>1</v>
+      </c>
+      <c r="I345" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="C345" s="18" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E345" s="16">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16">
-        <v>1</v>
-      </c>
-      <c r="G345" s="16">
-        <v>1</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" s="47" customFormat="1">
+    </row>
+    <row r="346" spans="1:9" s="46" customFormat="1">
       <c r="A346" s="15">
         <v>345</v>
       </c>
-      <c r="B346" s="45" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C346" s="49" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E346" s="47">
-        <v>1</v>
-      </c>
-      <c r="F346" s="47">
-        <v>1</v>
-      </c>
-      <c r="G346" s="47">
-        <v>1</v>
-      </c>
-      <c r="I346" s="46" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" s="47" customFormat="1">
+      <c r="B346" s="44" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C346" s="48" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E346" s="46">
+        <v>1</v>
+      </c>
+      <c r="F346" s="46">
+        <v>1</v>
+      </c>
+      <c r="G346" s="46">
+        <v>1</v>
+      </c>
+      <c r="I346" s="45" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" s="46" customFormat="1">
       <c r="A347" s="15">
         <v>346</v>
       </c>
-      <c r="B347" s="45" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C347" s="46" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E347" s="47">
-        <v>1</v>
-      </c>
-      <c r="F347" s="47">
-        <v>1</v>
-      </c>
-      <c r="G347" s="47">
-        <v>1</v>
-      </c>
-      <c r="I347" s="46" t="s">
-        <v>1039</v>
+      <c r="B347" s="44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C347" s="45" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E347" s="46">
+        <v>1</v>
+      </c>
+      <c r="F347" s="46">
+        <v>1</v>
+      </c>
+      <c r="G347" s="46">
+        <v>1</v>
+      </c>
+      <c r="I347" s="45" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5033,10 +5033,10 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F332" sqref="F332"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7017,7 +7017,7 @@
         <v>221</v>
       </c>
       <c r="E76" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="25">
         <v>1</v>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1042">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4387,6 +4387,18 @@
   </si>
   <si>
     <t>actp_own_task_p_041_xyxfl</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_005_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5030,13 +5042,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13625,99 +13637,122 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="339" spans="1:9" s="49" customFormat="1">
+    <row r="339" spans="1:9" s="16" customFormat="1">
       <c r="A339" s="15">
         <v>338</v>
       </c>
-      <c r="B339" s="47" t="s">
+      <c r="B339" s="17" t="s">
         <v>1027</v>
       </c>
-      <c r="C339" s="48" t="s">
+      <c r="C339" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="E339" s="49">
-        <v>1</v>
-      </c>
-      <c r="F339" s="49">
-        <v>1</v>
-      </c>
-      <c r="G339" s="49">
-        <v>1</v>
-      </c>
-      <c r="I339" s="48" t="s">
+      <c r="E339" s="16">
+        <v>0</v>
+      </c>
+      <c r="F339" s="16">
+        <v>1</v>
+      </c>
+      <c r="G339" s="16">
+        <v>1</v>
+      </c>
+      <c r="I339" s="14" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="340" spans="1:9" s="49" customFormat="1">
+    <row r="340" spans="1:9" s="16" customFormat="1">
       <c r="A340" s="15">
         <v>339</v>
       </c>
-      <c r="B340" s="47" t="s">
+      <c r="B340" s="17" t="s">
         <v>1028</v>
       </c>
-      <c r="C340" s="48" t="s">
+      <c r="C340" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="E340" s="49">
-        <v>1</v>
-      </c>
-      <c r="F340" s="49">
-        <v>1</v>
-      </c>
-      <c r="G340" s="49">
-        <v>1</v>
-      </c>
-      <c r="I340" s="48" t="s">
+      <c r="E340" s="16">
+        <v>0</v>
+      </c>
+      <c r="F340" s="16">
+        <v>1</v>
+      </c>
+      <c r="G340" s="16">
+        <v>1</v>
+      </c>
+      <c r="I340" s="14" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="341" spans="1:9" s="49" customFormat="1">
+    <row r="341" spans="1:9" s="16" customFormat="1">
       <c r="A341" s="15">
         <v>340</v>
       </c>
-      <c r="B341" s="47" t="s">
+      <c r="B341" s="17" t="s">
         <v>1037</v>
       </c>
-      <c r="C341" s="50" t="s">
+      <c r="C341" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="E341" s="49">
-        <v>1</v>
-      </c>
-      <c r="F341" s="49">
-        <v>1</v>
-      </c>
-      <c r="G341" s="49">
-        <v>1</v>
-      </c>
-      <c r="I341" s="48" t="s">
+      <c r="E341" s="16">
+        <v>0</v>
+      </c>
+      <c r="F341" s="16">
+        <v>1</v>
+      </c>
+      <c r="G341" s="16">
+        <v>1</v>
+      </c>
+      <c r="I341" s="14" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" s="16" customFormat="1">
       <c r="A342" s="15">
         <v>341</v>
       </c>
-      <c r="B342" s="41" t="s">
+      <c r="B342" s="26" t="s">
         <v>1033</v>
       </c>
-      <c r="C342" s="50" t="s">
+      <c r="C342" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="16" t="s">
         <v>1035</v>
       </c>
-      <c r="E342" s="49">
-        <v>1</v>
-      </c>
-      <c r="F342" s="49">
-        <v>1</v>
-      </c>
-      <c r="G342" s="49">
-        <v>1</v>
-      </c>
-      <c r="I342" s="48" t="s">
+      <c r="E342" s="16">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16">
+        <v>1</v>
+      </c>
+      <c r="G342" s="16">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
         <v>1036</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" s="49" customFormat="1">
+      <c r="A343" s="15">
+        <v>342</v>
+      </c>
+      <c r="B343" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C343" s="48" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E343" s="49">
+        <v>1</v>
+      </c>
+      <c r="F343" s="49">
+        <v>1</v>
+      </c>
+      <c r="G343" s="49">
+        <v>1</v>
+      </c>
+      <c r="I343" s="48" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -5054,10 +5054,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I331" sqref="I331"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7483,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>639</v>

--- a/config_3.9/game_module_config.xlsx
+++ b/config_3.9/game_module_config.xlsx
@@ -3999,10 +3999,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_045_XXLBDManger</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4435,6 +4431,10 @@
   </si>
   <si>
     <t>Act_Ty_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5054,10 +5054,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D323" sqref="D323"/>
+      <selection pane="bottomRight" activeCell="I331" sqref="I331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6483,7 +6483,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6587,7 +6587,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6616,7 +6616,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11541,14 +11541,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="D256" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="D256" s="14" t="s">
-        <v>1050</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12059,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="45" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="46" customFormat="1">
@@ -12082,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="45" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12790,7 +12790,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>925</v>
@@ -12972,7 +12972,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C311" s="45" t="s">
         <v>923</v>
@@ -13091,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13125,22 +13125,22 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="C317" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="E317" s="16">
+        <v>0</v>
+      </c>
+      <c r="F317" s="16">
+        <v>1</v>
+      </c>
+      <c r="G317" s="16">
+        <v>1</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>987</v>
-      </c>
-      <c r="E317" s="16">
-        <v>0</v>
-      </c>
-      <c r="F317" s="16">
-        <v>1</v>
-      </c>
-      <c r="G317" s="16">
-        <v>1</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="16" customFormat="1">
@@ -13148,22 +13148,22 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="C318" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="C318" s="14" t="s">
+      <c r="E318" s="16">
+        <v>0</v>
+      </c>
+      <c r="F318" s="16">
+        <v>1</v>
+      </c>
+      <c r="G318" s="16">
+        <v>1</v>
+      </c>
+      <c r="I318" s="14" t="s">
         <v>990</v>
-      </c>
-      <c r="E318" s="16">
-        <v>0</v>
-      </c>
-      <c r="F318" s="16">
-        <v>1</v>
-      </c>
-      <c r="G318" s="16">
-        <v>1</v>
-      </c>
-      <c r="I318" s="14" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="16" customFormat="1">
@@ -13171,11 +13171,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="C319" s="16" t="s">
         <v>992</v>
       </c>
-      <c r="C319" s="16" t="s">
-        <v>993</v>
-      </c>
       <c r="E319" s="16">
         <v>0</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="16" customFormat="1">
@@ -13194,11 +13194,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C320" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="C320" s="14" t="s">
-        <v>995</v>
-      </c>
       <c r="E320" s="16">
         <v>0</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="16" customFormat="1">
@@ -13217,10 +13217,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="C321" s="14" t="s">
         <v>996</v>
-      </c>
-      <c r="C321" s="14" t="s">
-        <v>997</v>
       </c>
       <c r="E321" s="16">
         <v>0</v>
@@ -13240,11 +13240,11 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C322" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="C322" s="14" t="s">
-        <v>999</v>
-      </c>
       <c r="E322" s="16">
         <v>0</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13263,48 +13263,48 @@
         <v>322</v>
       </c>
       <c r="B323" s="42" t="s">
+        <v>999</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="C323" s="14" t="s">
+      <c r="E323" s="16">
+        <v>1</v>
+      </c>
+      <c r="F323" s="16">
+        <v>1</v>
+      </c>
+      <c r="G323" s="16">
+        <v>1</v>
+      </c>
+      <c r="I323" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="E323" s="16">
-        <v>1</v>
-      </c>
-      <c r="F323" s="16">
-        <v>1</v>
-      </c>
-      <c r="G323" s="16">
-        <v>1</v>
-      </c>
-      <c r="I323" s="18" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="16" customFormat="1">
+    </row>
+    <row r="324" spans="1:9" s="46" customFormat="1">
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="17" t="s">
+      <c r="B324" s="44" t="s">
         <v>956</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="C324" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D324" s="44" t="s">
         <v>957</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>958</v>
-      </c>
-      <c r="E324" s="16">
-        <v>0</v>
-      </c>
-      <c r="F324" s="16">
-        <v>1</v>
-      </c>
-      <c r="G324" s="16">
-        <v>1</v>
-      </c>
-      <c r="I324" s="14" t="s">
-        <v>959</v>
+      <c r="E324" s="46">
+        <v>1</v>
+      </c>
+      <c r="F324" s="46">
+        <v>1</v>
+      </c>
+      <c r="G324" s="46">
+        <v>1</v>
+      </c>
+      <c r="I324" s="45" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13312,14 +13312,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="D325" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>962</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13338,11 +13338,11 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="C326" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="C326" s="14" t="s">
-        <v>964</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13361,7 +13361,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E327" s="16">
         <v>1</v>
@@ -13381,14 +13381,14 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="C328" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>970</v>
-      </c>
       <c r="E328" s="16">
         <v>0</v>
       </c>
@@ -13399,10 +13399,10 @@
         <v>1</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13410,10 +13410,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E329" s="16">
         <v>0</v>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13433,10 +13433,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E330" s="16">
         <v>0</v>
@@ -13448,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="16" customFormat="1">
@@ -13456,22 +13456,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C331" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="E331" s="16">
+        <v>0</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>984</v>
-      </c>
-      <c r="E331" s="16">
-        <v>0</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="16" customFormat="1">
@@ -13479,14 +13479,14 @@
         <v>331</v>
       </c>
       <c r="B332" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D332" s="17" t="s">
         <v>1007</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1008</v>
-      </c>
       <c r="E332" s="16">
         <v>0</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="16" customFormat="1">
@@ -13505,25 +13505,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D333" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D333" s="17" t="s">
+      <c r="E333" s="16">
+        <v>0</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1005</v>
-      </c>
-      <c r="E333" s="16">
-        <v>0</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="16" customFormat="1">
@@ -13531,10 +13531,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -13546,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="16" customFormat="1">
@@ -13554,10 +13554,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="16" customFormat="1">
@@ -13577,10 +13577,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13592,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="16" customFormat="1">
@@ -13600,11 +13600,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="C337" s="14" t="s">
-        <v>1013</v>
-      </c>
       <c r="E337" s="16">
         <v>0</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="16" customFormat="1">
@@ -13623,25 +13623,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C338" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D338" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="D338" s="14" t="s">
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1015</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="339" spans="1:9" s="16" customFormat="1">
@@ -13649,10 +13649,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E339" s="16">
         <v>0</v>
@@ -13664,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="I339" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="340" spans="1:9" s="16" customFormat="1">
@@ -13672,10 +13672,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E340" s="16">
         <v>0</v>
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="341" spans="1:9" s="16" customFormat="1">
@@ -13695,22 +13695,22 @@
         <v>340</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C341" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E341" s="16">
+        <v>0</v>
+      </c>
+      <c r="F341" s="16">
+        <v>1</v>
+      </c>
+      <c r="G341" s="16">
+        <v>1</v>
+      </c>
+      <c r="I341" s="14" t="s">
         <v>1026</v>
-      </c>
-      <c r="E341" s="16">
-        <v>0</v>
-      </c>
-      <c r="F341" s="16">
-        <v>1</v>
-      </c>
-      <c r="G341" s="16">
-        <v>1</v>
-      </c>
-      <c r="I341" s="14" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="342" spans="1:9" s="16" customFormat="1">
@@ -13718,25 +13718,25 @@
         <v>341</v>
       </c>
       <c r="B342" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C342" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="D342" s="16" t="s">
         <v>1029</v>
       </c>
-      <c r="D342" s="16" t="s">
+      <c r="E342" s="16">
+        <v>1</v>
+      </c>
+      <c r="F342" s="16">
+        <v>1</v>
+      </c>
+      <c r="G342" s="16">
+        <v>1</v>
+      </c>
+      <c r="I342" s="14" t="s">
         <v>1030</v>
-      </c>
-      <c r="E342" s="16">
-        <v>1</v>
-      </c>
-      <c r="F342" s="16">
-        <v>1</v>
-      </c>
-      <c r="G342" s="16">
-        <v>1</v>
-      </c>
-      <c r="I342" s="14" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="343" spans="1:9" s="46" customFormat="1">
@@ -13744,22 +13744,22 @@
         <v>342</v>
       </c>
       <c r="B343" s="44" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C343" s="45" t="s">
         <v>1034</v>
       </c>
-      <c r="C343" s="45" t="s">
+      <c r="E343" s="46">
+        <v>1</v>
+      </c>
+      <c r="F343" s="46">
+        <v>1</v>
+      </c>
+      <c r="G343" s="46">
+        <v>1</v>
+      </c>
+      <c r="I343" s="45" t="s">
         <v>1035</v>
-      </c>
-      <c r="E343" s="46">
-        <v>1</v>
-      </c>
-      <c r="F343" s="46">
-        <v>1</v>
-      </c>
-      <c r="G343" s="46">
-        <v>1</v>
-      </c>
-      <c r="I343" s="45" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13767,25 +13767,25 @@
         <v>343</v>
       </c>
       <c r="B344" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C344" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="D344" t="s">
         <v>1038</v>
       </c>
-      <c r="D344" t="s">
+      <c r="E344" s="16">
+        <v>1</v>
+      </c>
+      <c r="F344" s="16">
+        <v>1</v>
+      </c>
+      <c r="G344" s="16">
+        <v>1</v>
+      </c>
+      <c r="I344" s="14" t="s">
         <v>1039</v>
-      </c>
-      <c r="E344" s="16">
-        <v>1</v>
-      </c>
-      <c r="F344" s="16">
-        <v>1</v>
-      </c>
-      <c r="G344" s="16">
-        <v>1</v>
-      </c>
-      <c r="I344" s="14" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13793,25 +13793,25 @@
         <v>344</v>
       </c>
       <c r="B345" s="38" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D345" t="s">
         <v>1041</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="E345" s="16">
+        <v>1</v>
+      </c>
+      <c r="F345" s="16">
+        <v>1</v>
+      </c>
+      <c r="G345" s="16">
+        <v>1</v>
+      </c>
+      <c r="I345" s="14" t="s">
         <v>1043</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E345" s="16">
-        <v>1</v>
-      </c>
-      <c r="F345" s="16">
-        <v>1</v>
-      </c>
-      <c r="G345" s="16">
-        <v>1</v>
-      </c>
-      <c r="I345" s="14" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="346" spans="1:9" s="46" customFormat="1">
@@ -13819,10 +13819,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C346" s="48" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E346" s="46">
         <v>1</v>
@@ -13834,7 +13834,7 @@
         <v>1</v>
       </c>
       <c r="I346" s="45" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="347" spans="1:9" s="46" customFormat="1">
@@ -13842,10 +13842,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C347" s="45" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E347" s="46">
         <v>1</v>
@@ -13857,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="I347" s="45" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
